--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -452,7 +452,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -524,6 +524,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -533,7 +536,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -605,6 +608,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4259726.2363496125</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4430455.1153657371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,7 +653,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -719,6 +725,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +737,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -800,6 +809,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>4287869.0150137786</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4342932.4123021867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,7 +854,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -914,6 +926,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +938,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -995,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>28142.778664166108</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-87522.703063550405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,11 +1034,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253164928"/>
-        <c:axId val="253256832"/>
+        <c:axId val="41104512"/>
+        <c:axId val="81863424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="253164928"/>
+        <c:axId val="41104512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,14 +1081,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253256832"/>
+        <c:crossAx val="81863424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="253256832"/>
+        <c:axId val="81863424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1139,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253164928"/>
+        <c:crossAx val="41104512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,6 +1295,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1311,7 +1330,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1383,6 +1402,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>153462.94180681123</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170728.87901612459</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,8 +1419,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="254812544"/>
-        <c:axId val="254317696"/>
+        <c:axId val="616618624"/>
+        <c:axId val="616616704"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1423,7 +1445,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1495,6 +1517,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>45016</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,7 +1529,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1576,6 +1601,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>3.7161979980468751</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6159379882812499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,11 +1620,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254293888"/>
-        <c:axId val="254295424"/>
+        <c:axId val="616343040"/>
+        <c:axId val="616344576"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="254293888"/>
+        <c:axId val="616343040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1639,14 +1667,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254295424"/>
+        <c:crossAx val="616344576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="254295424"/>
+        <c:axId val="616344576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,12 +1725,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254293888"/>
+        <c:crossAx val="616343040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="254317696"/>
+        <c:axId val="616616704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1739,12 +1767,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="254812544"/>
+        <c:crossAx val="616618624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="254812544"/>
+        <c:axId val="616618624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254317696"/>
+        <c:crossAx val="616616704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2190,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3288,6 +3316,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="27" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>45044</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3.6159379882812499</v>
+      </c>
+      <c r="C27" s="15">
+        <v>23.579999919999999</v>
+      </c>
+      <c r="D27" s="16">
+        <v>30.154382097569265</v>
+      </c>
+      <c r="E27" s="16">
+        <v>170728.87901612459</v>
+      </c>
+      <c r="F27" s="17">
+        <v>47215.654574119646</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1200870.8556668111</v>
+      </c>
+      <c r="H27" s="17">
+        <v>4342274.5460254326</v>
+      </c>
+      <c r="I27" s="17">
+        <v>4430455.1153657371</v>
+      </c>
+      <c r="J27" s="17">
+        <v>4342932.4123021867</v>
+      </c>
+      <c r="K27" s="17">
+        <v>-87522.703063550405</v>
+      </c>
+      <c r="L27" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -452,7 +448,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -527,6 +523,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +538,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -611,6 +613,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4430455.1153657371</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4716133.4036750533</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4928970.1932542296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -653,7 +661,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -728,6 +736,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +751,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -812,6 +826,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4342932.4123021867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4430043.0691781146</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4846029.7311005173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -854,7 +874,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -929,6 +949,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +964,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1013,6 +1039,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-87522.703063550405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-286090.33449693862</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-82940.462153712288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,11 +1066,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41104512"/>
-        <c:axId val="81863424"/>
+        <c:axId val="523086464"/>
+        <c:axId val="644337664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="41104512"/>
+        <c:axId val="523086464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,14 +1113,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81863424"/>
+        <c:crossAx val="644337664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="81863424"/>
+        <c:axId val="644337664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1171,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41104512"/>
+        <c:crossAx val="523086464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,7 +1362,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1405,6 +1437,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>170728.87901612459</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>285678.28830931569</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>212836.78957917634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1419,8 +1457,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616618624"/>
-        <c:axId val="616616704"/>
+        <c:axId val="646503040"/>
+        <c:axId val="646494848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1445,7 +1483,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1520,6 +1558,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>45044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45077</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,7 +1573,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1604,6 +1648,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>3.6159379882812499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4505849609374999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1620,11 +1670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616343040"/>
-        <c:axId val="616344576"/>
+        <c:axId val="646472064"/>
+        <c:axId val="646473600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616343040"/>
+        <c:axId val="646472064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,14 +1717,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616344576"/>
+        <c:crossAx val="646473600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616344576"/>
+        <c:axId val="646473600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1725,12 +1775,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616343040"/>
+        <c:crossAx val="646472064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616616704"/>
+        <c:axId val="646494848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,12 +1817,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616618624"/>
+        <c:crossAx val="646503040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616618624"/>
+        <c:axId val="646503040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1781,7 +1831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616616704"/>
+        <c:crossAx val="646494848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2190,7 +2240,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA27"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2271,7 +2321,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2323,13 +2373,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2341,10 +2391,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3351,6 +3401,82 @@
         <v>-87522.703063550405</v>
       </c>
       <c r="L27" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>45077</v>
+      </c>
+      <c r="B28" s="15">
+        <v>3.4505849609374999</v>
+      </c>
+      <c r="C28" s="15">
+        <v>21.329999919999999</v>
+      </c>
+      <c r="D28" s="16">
+        <v>29.834329246495866</v>
+      </c>
+      <c r="E28" s="16">
+        <v>285678.28830931569</v>
+      </c>
+      <c r="F28" s="17">
+        <v>82791.263378050222</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1283662.1190448613</v>
+      </c>
+      <c r="H28" s="17">
+        <v>4429385.2029013606</v>
+      </c>
+      <c r="I28" s="17">
+        <v>4716133.4036750533</v>
+      </c>
+      <c r="J28" s="17">
+        <v>4430043.0691781146</v>
+      </c>
+      <c r="K28" s="17">
+        <v>-286090.33449693862</v>
+      </c>
+      <c r="L28" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>45107</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C29" s="15">
+        <v>22.200000760000002</v>
+      </c>
+      <c r="D29" s="16">
+        <v>29.540486543586262</v>
+      </c>
+      <c r="E29" s="16">
+        <v>212836.78957917634</v>
+      </c>
+      <c r="F29" s="17">
+        <v>58976.4610271161</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1342638.5800719773</v>
+      </c>
+      <c r="H29" s="17">
+        <v>4845371.8648237633</v>
+      </c>
+      <c r="I29" s="17">
+        <v>4928970.1932542296</v>
+      </c>
+      <c r="J29" s="17">
+        <v>4846029.7311005173</v>
+      </c>
+      <c r="K29" s="17">
+        <v>-82940.462153712288</v>
+      </c>
+      <c r="L29" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -241,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -294,6 +294,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,8 +451,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -529,6 +532,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -538,7 +544,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -619,6 +625,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4928970.1932542296</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5114477.6274139844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,8 +670,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -742,6 +751,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,7 +763,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -832,6 +844,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4846029.7311005173</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5031537.165260273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,8 +889,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -955,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,7 +982,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1045,6 +1063,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-82940.462153712288</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-82940.462153711356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,17 +1087,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="523086464"/>
-        <c:axId val="644337664"/>
+        <c:axId val="564105600"/>
+        <c:axId val="564107136"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="523086464"/>
+      <c:catAx>
+        <c:axId val="564105600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1113,14 +1134,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="644337664"/>
+        <c:crossAx val="564107136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="644337664"/>
+        <c:axId val="564107136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="523086464"/>
+        <c:crossAx val="564105600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1384,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1443,6 +1465,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>212836.78957917634</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>185507.43415975483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1457,8 +1482,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="646503040"/>
-        <c:axId val="646494848"/>
+        <c:axId val="604649728"/>
+        <c:axId val="593880192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1483,8 +1508,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
+                <c:ptCount val="28"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1564,6 +1589,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,7 +1601,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1653,6 +1681,9 @@
                   <c:v>3.4505849609374999</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>3.608843017578125</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
               </c:numCache>
@@ -1670,17 +1701,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="646472064"/>
-        <c:axId val="646473600"/>
+        <c:axId val="593860480"/>
+        <c:axId val="593862016"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="646472064"/>
+      <c:catAx>
+        <c:axId val="593860480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1717,14 +1748,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646473600"/>
+        <c:crossAx val="593862016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="646473600"/>
+        <c:axId val="593862016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,12 +1807,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646472064"/>
+        <c:crossAx val="593860480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="646494848"/>
+        <c:axId val="593880192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1817,12 +1849,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="646503040"/>
+        <c:crossAx val="604649728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="646503040"/>
+        <c:axId val="604649728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1831,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="646494848"/>
+        <c:crossAx val="593880192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2272,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2335,7 +2367,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="28">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -3477,6 +3509,44 @@
         <v>-82940.462153712288</v>
       </c>
       <c r="L29" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>45138</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3.608843017578125</v>
+      </c>
+      <c r="C30" s="15">
+        <v>22.409999849999998</v>
+      </c>
+      <c r="D30" s="16">
+        <v>29.263021620154856</v>
+      </c>
+      <c r="E30" s="16">
+        <v>185507.43415975483</v>
+      </c>
+      <c r="F30" s="17">
+        <v>51403.575399699119</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1394042.1554716765</v>
+      </c>
+      <c r="H30" s="17">
+        <v>5030879.298983519</v>
+      </c>
+      <c r="I30" s="17">
+        <v>5114477.6274139844</v>
+      </c>
+      <c r="J30" s="17">
+        <v>5031537.165260273</v>
+      </c>
+      <c r="K30" s="17">
+        <v>-82940.462153711356</v>
+      </c>
+      <c r="L30" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -241,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -294,9 +298,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +453,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -671,7 +672,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -846,7 +847,7 @@
                   <c:v>4846029.7311005173</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5031537.165260273</c:v>
+                  <c:v>5060472.4033898367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,7 +891,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1065,7 +1066,7 @@
                   <c:v>-82940.462153712288</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-82940.462153711356</c:v>
+                  <c:v>-54005.224024147727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,17 +1088,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="564105600"/>
-        <c:axId val="564107136"/>
+        <c:axId val="549814656"/>
+        <c:axId val="549816960"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="564105600"/>
+      <c:dateAx>
+        <c:axId val="549814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1134,15 +1135,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564107136"/>
+        <c:crossAx val="549816960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="564107136"/>
+        <c:axId val="549816960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1193,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564105600"/>
+        <c:crossAx val="549814656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1482,8 +1482,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="604649728"/>
-        <c:axId val="593880192"/>
+        <c:axId val="555355520"/>
+        <c:axId val="552095104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1509,7 +1509,7 @@
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
                 <c:ptCount val="28"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1684,7 +1684,7 @@
                   <c:v>3.608843017578125</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.608843017578125</c:v>
+                  <c:v>3.6303940429687498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,17 +1701,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="593860480"/>
-        <c:axId val="593862016"/>
+        <c:axId val="552091648"/>
+        <c:axId val="552093184"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="593860480"/>
+      <c:dateAx>
+        <c:axId val="552091648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1748,15 +1748,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593862016"/>
+        <c:crossAx val="552093184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="593862016"/>
+        <c:axId val="552093184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,12 +1806,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593860480"/>
+        <c:crossAx val="552091648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593880192"/>
+        <c:axId val="552095104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1848,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="604649728"/>
+        <c:crossAx val="555355520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="604649728"/>
+        <c:axId val="555355520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,7 +1862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="593880192"/>
+        <c:crossAx val="552095104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2353,7 +2352,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2367,7 +2366,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="14">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -2405,13 +2404,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2423,10 +2422,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3517,7 +3516,7 @@
         <v>45138</v>
       </c>
       <c r="B30" s="15">
-        <v>3.608843017578125</v>
+        <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
         <v>22.409999849999998</v>
@@ -3529,22 +3528,22 @@
         <v>185507.43415975483</v>
       </c>
       <c r="F30" s="17">
-        <v>51403.575399699119</v>
+        <v>51098.429526965723</v>
       </c>
       <c r="G30" s="17">
-        <v>1394042.1554716765</v>
+        <v>1393737.0095989432</v>
       </c>
       <c r="H30" s="17">
-        <v>5030879.298983519</v>
+        <v>5059814.5371130826</v>
       </c>
       <c r="I30" s="17">
         <v>5114477.6274139844</v>
       </c>
       <c r="J30" s="17">
-        <v>5031537.165260273</v>
+        <v>5060472.4033898367</v>
       </c>
       <c r="K30" s="17">
-        <v>-82940.462153711356</v>
+        <v>-54005.224024147727</v>
       </c>
       <c r="L30" s="16">
         <v>657.86627675392538</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -298,6 +298,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -452,8 +455,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -536,6 +539,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -545,7 +551,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -629,6 +635,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5114477.6274139844</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5370568.2510646563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,8 +680,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -755,6 +764,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +776,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -848,6 +860,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>5060472.4033898367</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4971815.2362525882</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,8 +905,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -974,6 +989,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +1001,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1067,6 +1085,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>-54005.224024147727</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-398753.01481206808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1088,17 +1109,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="549814656"/>
-        <c:axId val="549816960"/>
+        <c:axId val="566010624"/>
+        <c:axId val="566012544"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="549814656"/>
+      <c:catAx>
+        <c:axId val="566010624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1135,14 +1156,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549816960"/>
+        <c:crossAx val="566012544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="549816960"/>
+        <c:axId val="566012544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1215,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="549814656"/>
+        <c:crossAx val="566010624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,7 +1406,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1468,6 +1490,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>185507.43415975483</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>256090.62365067154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,8 +1507,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555355520"/>
-        <c:axId val="552095104"/>
+        <c:axId val="661684224"/>
+        <c:axId val="661663744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1508,8 +1533,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="28"/>
-                <c:pt idx="0">
+                <c:ptCount val="29"/>
+                <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1592,6 +1617,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,7 +1629,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1685,6 +1713,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.6303940429687498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3830390625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1701,17 +1732,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="552091648"/>
-        <c:axId val="552093184"/>
+        <c:axId val="596612608"/>
+        <c:axId val="596614144"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="552091648"/>
+      <c:catAx>
+        <c:axId val="596612608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1748,14 +1779,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552093184"/>
+        <c:crossAx val="596614144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="months"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="552093184"/>
+        <c:axId val="596614144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,12 +1838,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552091648"/>
+        <c:crossAx val="596612608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="552095104"/>
+        <c:axId val="661663744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,12 +1880,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555355520"/>
+        <c:crossAx val="661684224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="555355520"/>
+        <c:axId val="661684224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1894,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="552095104"/>
+        <c:crossAx val="661663744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2271,7 +2303,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2366,7 +2398,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="28">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -3546,6 +3578,44 @@
         <v>-54005.224024147727</v>
       </c>
       <c r="L30" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>45169</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3.3830390625</v>
+      </c>
+      <c r="C31" s="15">
+        <v>20.899999619999999</v>
+      </c>
+      <c r="D31" s="16">
+        <v>28.951898109092557</v>
+      </c>
+      <c r="E31" s="16">
+        <v>256090.62365067154</v>
+      </c>
+      <c r="F31" s="17">
+        <v>75698.393935015803</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1469435.4035339591</v>
+      </c>
+      <c r="H31" s="17">
+        <v>4971157.3699758342</v>
+      </c>
+      <c r="I31" s="17">
+        <v>5370568.2510646563</v>
+      </c>
+      <c r="J31" s="17">
+        <v>4971815.2362525882</v>
+      </c>
+      <c r="K31" s="17">
+        <v>-398753.01481206808</v>
+      </c>
+      <c r="L31" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -455,7 +455,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -542,6 +542,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -551,7 +554,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -638,6 +641,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>5370568.2510646563</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5718998.8921297649</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +686,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -767,6 +773,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,7 +785,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -863,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>4971815.2362525882</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5097075.3754059775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +917,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -992,6 +1004,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1001,7 +1016,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1088,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-398753.01481206808</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-621923.51672378741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,11 +1127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566010624"/>
-        <c:axId val="566012544"/>
+        <c:axId val="521740288"/>
+        <c:axId val="521742592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="566010624"/>
+        <c:axId val="521740288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1156,7 +1174,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566012544"/>
+        <c:crossAx val="521742592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1164,7 +1182,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="566012544"/>
+        <c:axId val="521742592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1215,7 +1233,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566010624"/>
+        <c:crossAx val="521740288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1406,7 +1424,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1493,6 +1511,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>256090.62365067154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>348430.64106510871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,8 +1528,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="661684224"/>
-        <c:axId val="661663744"/>
+        <c:axId val="555321600"/>
+        <c:axId val="555319296"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1533,7 +1554,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0" formatCode="0.00_ ">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1620,6 +1641,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>45169</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,7 +1653,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1716,6 +1740,9 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>3.3830390625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2311640625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,11 +1759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596612608"/>
-        <c:axId val="596614144"/>
+        <c:axId val="555141760"/>
+        <c:axId val="555149568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="596612608"/>
+        <c:axId val="555141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +1806,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596614144"/>
+        <c:crossAx val="555149568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1787,7 +1814,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596614144"/>
+        <c:axId val="555149568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1865,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596612608"/>
+        <c:crossAx val="555141760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="661663744"/>
+        <c:axId val="555319296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,12 +1907,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="661684224"/>
+        <c:crossAx val="555321600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="661684224"/>
+        <c:axId val="555321600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="661663744"/>
+        <c:crossAx val="555319296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2303,7 +2330,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3619,6 +3646,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="32" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>45197</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3.2311640625</v>
+      </c>
+      <c r="C32" s="15">
+        <v>19.25</v>
+      </c>
+      <c r="D32" s="16">
+        <v>28.642033266404177</v>
+      </c>
+      <c r="E32" s="16">
+        <v>348430.64106510871</v>
+      </c>
+      <c r="F32" s="17">
+        <v>107834.40095441106</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1577269.8044883702</v>
+      </c>
+      <c r="H32" s="17">
+        <v>5096417.5091292234</v>
+      </c>
+      <c r="I32" s="17">
+        <v>5718998.8921297649</v>
+      </c>
+      <c r="J32" s="17">
+        <v>5097075.3754059775</v>
+      </c>
+      <c r="K32" s="17">
+        <v>-621923.51672378741</v>
+      </c>
+      <c r="L32" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -298,9 +294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -455,8 +448,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -545,6 +538,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,7 +550,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -644,6 +640,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5718998.8921297649</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6083191.8155736588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -686,8 +685,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -776,6 +775,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,7 +787,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -875,6 +877,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>5097075.3754059775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5302046.0697069839</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -917,8 +922,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1007,6 +1012,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,7 +1024,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1106,6 +1114,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>-621923.51672378741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-781145.74586667493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,17 +1138,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="521740288"/>
-        <c:axId val="521742592"/>
+        <c:axId val="576695680"/>
+        <c:axId val="583341184"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="521740288"/>
+      <c:dateAx>
+        <c:axId val="576695680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
@@ -1174,15 +1185,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521742592"/>
+        <c:crossAx val="583341184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="521742592"/>
+        <c:axId val="583341184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1243,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="521740288"/>
+        <c:crossAx val="576695680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1424,7 +1434,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1514,6 +1524,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>348430.64106510871</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>364192.92344389425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,8 +1541,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="555321600"/>
-        <c:axId val="555319296"/>
+        <c:axId val="609220864"/>
+        <c:axId val="609188864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1554,8 +1567,8 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0" formatCode="0.00_ ">
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1644,6 +1657,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45197</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,7 +1669,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1743,6 +1759,9 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>3.2311640625</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.1302160644531249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1759,17 +1778,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555141760"/>
-        <c:axId val="555149568"/>
+        <c:axId val="609185792"/>
+        <c:axId val="609187328"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="555141760"/>
+      <c:dateAx>
+        <c:axId val="609185792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:numFmt formatCode="yyyy\-mm\-dd" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1806,15 +1825,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555149568"/>
+        <c:crossAx val="609187328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="555149568"/>
+        <c:axId val="609187328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,12 +1883,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555141760"/>
+        <c:crossAx val="609185792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555319296"/>
+        <c:axId val="609188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,12 +1925,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555321600"/>
+        <c:crossAx val="609220864"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="555321600"/>
+        <c:axId val="609220864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1921,7 +1939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555319296"/>
+        <c:crossAx val="609188864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2330,7 +2348,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2411,7 +2429,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2425,7 +2443,7 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="14">
         <v>44316</v>
       </c>
       <c r="B3" s="15">
@@ -2463,13 +2481,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2481,10 +2499,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3681,6 +3699,44 @@
         <v>-621923.51672378741</v>
       </c>
       <c r="L32" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>45230</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3.1302160644531249</v>
+      </c>
+      <c r="C33" s="15">
+        <v>18.770000459999999</v>
+      </c>
+      <c r="D33" s="16">
+        <v>28.372122106405978</v>
+      </c>
+      <c r="E33" s="16">
+        <v>364192.92344389425</v>
+      </c>
+      <c r="F33" s="17">
+        <v>116347.53510458449</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1693617.3395929546</v>
+      </c>
+      <c r="H33" s="17">
+        <v>5301388.2034302298</v>
+      </c>
+      <c r="I33" s="17">
+        <v>6083191.8155736588</v>
+      </c>
+      <c r="J33" s="17">
+        <v>5302046.0697069839</v>
+      </c>
+      <c r="K33" s="17">
+        <v>-781145.74586667493</v>
+      </c>
+      <c r="L33" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -448,7 +452,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -541,6 +545,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +560,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -643,6 +653,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>6083191.8155736588</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6486276.3330609258</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6880146.601980241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,7 +701,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -778,6 +794,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +809,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -880,6 +902,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5302046.0697069839</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5595275.768923969</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5931030.6730265608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -922,7 +950,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1015,6 +1043,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +1058,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1117,6 +1151,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>-781145.74586667493</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-891000.56413695682</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-949115.92895368021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1138,11 +1178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="576695680"/>
-        <c:axId val="583341184"/>
+        <c:axId val="565341568"/>
+        <c:axId val="565348224"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="576695680"/>
+        <c:axId val="565341568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1185,14 +1225,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="583341184"/>
+        <c:crossAx val="565348224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="583341184"/>
+        <c:axId val="565348224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1283,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576695680"/>
+        <c:crossAx val="565341568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1434,7 +1474,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1527,6 +1567,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>364192.92344389425</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>403084.51748726668</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>393870.26891931542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1541,8 +1587,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="609220864"/>
-        <c:axId val="609188864"/>
+        <c:axId val="658725888"/>
+        <c:axId val="658723968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1567,7 +1613,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1660,6 +1706,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>45230</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45260</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,7 +1721,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1762,6 +1814,12 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.1302160644531249</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.0653520507812502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.0335100097656249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,11 +1836,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609185792"/>
-        <c:axId val="609187328"/>
+        <c:axId val="658691968"/>
+        <c:axId val="658693504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="609185792"/>
+        <c:axId val="658691968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,14 +1883,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609187328"/>
+        <c:crossAx val="658693504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="609187328"/>
+        <c:axId val="658693504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,12 +1941,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609185792"/>
+        <c:crossAx val="658691968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609188864"/>
+        <c:axId val="658723968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1925,12 +1983,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="609220864"/>
+        <c:crossAx val="658725888"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="609220864"/>
+        <c:axId val="658725888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609188864"/>
+        <c:crossAx val="658723968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2348,7 +2406,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2429,7 +2487,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2481,13 +2539,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2499,10 +2557,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3737,6 +3795,82 @@
         <v>-781145.74586667493</v>
       </c>
       <c r="L33" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>45260</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3.0653520507812502</v>
+      </c>
+      <c r="C34" s="15">
+        <v>17.93000031</v>
+      </c>
+      <c r="D34" s="16">
+        <v>28.031817636002071</v>
+      </c>
+      <c r="E34" s="16">
+        <v>403084.51748726668</v>
+      </c>
+      <c r="F34" s="17">
+        <v>131496.97353181167</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1825114.3131247663</v>
+      </c>
+      <c r="H34" s="17">
+        <v>5594617.9026472149</v>
+      </c>
+      <c r="I34" s="17">
+        <v>6486276.3330609258</v>
+      </c>
+      <c r="J34" s="17">
+        <v>5595275.768923969</v>
+      </c>
+      <c r="K34" s="17">
+        <v>-891000.56413695682</v>
+      </c>
+      <c r="L34" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>45289</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3.0335100097656249</v>
+      </c>
+      <c r="C35" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D35" s="16">
+        <v>27.695688446862572</v>
+      </c>
+      <c r="E35" s="16">
+        <v>393870.26891931542</v>
+      </c>
+      <c r="F35" s="17">
+        <v>129839.77888694906</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1954954.0920117153</v>
+      </c>
+      <c r="H35" s="17">
+        <v>5930372.8067498067</v>
+      </c>
+      <c r="I35" s="17">
+        <v>6880146.601980241</v>
+      </c>
+      <c r="J35" s="17">
+        <v>5931030.6730265608</v>
+      </c>
+      <c r="K35" s="17">
+        <v>-949115.92895368021</v>
+      </c>
+      <c r="L35" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -452,7 +452,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -551,6 +551,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -560,7 +563,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -659,6 +662,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>6880146.601980241</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7444842.0136018358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -701,7 +707,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -800,6 +806,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -809,7 +818,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -908,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>5931030.6730265608</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5708530.6005531531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +962,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1049,6 +1061,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,7 +1073,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1157,6 +1172,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>-949115.92895368021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1736311.4130486827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1178,11 +1196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="565341568"/>
-        <c:axId val="565348224"/>
+        <c:axId val="497954176"/>
+        <c:axId val="497974272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="565341568"/>
+        <c:axId val="497954176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,14 +1243,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565348224"/>
+        <c:crossAx val="497974272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="565348224"/>
+        <c:axId val="497974272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565341568"/>
+        <c:crossAx val="497954176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1474,7 +1492,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1573,6 +1591,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>393870.26891931542</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>564695.41162159434</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,8 +1608,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="658725888"/>
-        <c:axId val="658723968"/>
+        <c:axId val="612192256"/>
+        <c:axId val="612181888"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1613,7 +1634,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1712,6 +1733,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>45289</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,7 +1745,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1820,6 +1844,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>3.0335100097656249</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.6308430175781252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,11 +1863,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="658691968"/>
-        <c:axId val="658693504"/>
+        <c:axId val="568641792"/>
+        <c:axId val="612179968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="658691968"/>
+        <c:axId val="568641792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,14 +1910,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658693504"/>
+        <c:crossAx val="612179968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="658693504"/>
+        <c:axId val="612179968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,12 +1968,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658691968"/>
+        <c:crossAx val="568641792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="658723968"/>
+        <c:axId val="612181888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,12 +2010,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="658725888"/>
+        <c:crossAx val="612192256"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="658725888"/>
+        <c:axId val="612192256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="658723968"/>
+        <c:crossAx val="612181888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2406,7 +2433,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3874,6 +3901,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>45322</v>
+      </c>
+      <c r="B36" s="15">
+        <v>2.6308430175781252</v>
+      </c>
+      <c r="C36" s="15">
+        <v>15.380000109999999</v>
+      </c>
+      <c r="D36" s="16">
+        <v>27.336624370286405</v>
+      </c>
+      <c r="E36" s="16">
+        <v>564695.41162159434</v>
+      </c>
+      <c r="F36" s="17">
+        <v>214644.28240246576</v>
+      </c>
+      <c r="G36" s="17">
+        <v>2169598.3744141809</v>
+      </c>
+      <c r="H36" s="17">
+        <v>5707872.734276399</v>
+      </c>
+      <c r="I36" s="17">
+        <v>7444842.0136018358</v>
+      </c>
+      <c r="J36" s="17">
+        <v>5708530.6005531531</v>
+      </c>
+      <c r="K36" s="17">
+        <v>-1736311.4130486827</v>
+      </c>
+      <c r="L36" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -452,7 +448,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -554,6 +550,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +562,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -665,6 +664,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>7444842.0136018358</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7810883.1460298952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +709,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -809,6 +811,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -818,7 +823,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -920,6 +925,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>5708530.6005531531</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6880321.6902052686</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,7 +970,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1064,6 +1072,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,7 +1084,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1175,6 +1186,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>-1736311.4130486827</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-930561.45582462661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,11 +1210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="497954176"/>
-        <c:axId val="497974272"/>
+        <c:axId val="459548544"/>
+        <c:axId val="469115648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="497954176"/>
+        <c:axId val="459548544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,14 +1257,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497974272"/>
+        <c:crossAx val="469115648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="497974272"/>
+        <c:axId val="469115648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1315,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="497954176"/>
+        <c:crossAx val="459548544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1492,7 +1506,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1594,6 +1608,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>564695.41162159434</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>366041.13242805976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1608,8 +1625,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="612192256"/>
-        <c:axId val="612181888"/>
+        <c:axId val="572704640"/>
+        <c:axId val="572703104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1634,7 +1651,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1736,6 +1753,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>45322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1745,7 +1765,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1847,6 +1867,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2.6308430175781252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.0022250976562499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,11 +1886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="568641792"/>
-        <c:axId val="612179968"/>
+        <c:axId val="504455936"/>
+        <c:axId val="527997952"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="568641792"/>
+        <c:axId val="504455936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,14 +1933,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612179968"/>
+        <c:crossAx val="527997952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="612179968"/>
+        <c:axId val="527997952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1968,12 +1991,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="568641792"/>
+        <c:crossAx val="504455936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="612181888"/>
+        <c:axId val="572703104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,12 +2033,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="612192256"/>
+        <c:crossAx val="572704640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="612192256"/>
+        <c:axId val="572704640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +2047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="612181888"/>
+        <c:crossAx val="572703104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2433,7 +2456,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA36"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2514,7 +2537,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2566,13 +2589,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2584,10 +2607,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -3936,6 +3959,44 @@
         <v>-1736311.4130486827</v>
       </c>
       <c r="L36" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>45351</v>
+      </c>
+      <c r="B37" s="15">
+        <v>3.0022250976562499</v>
+      </c>
+      <c r="C37" s="15">
+        <v>17.479999540000001</v>
+      </c>
+      <c r="D37" s="16">
+        <v>27.106454812893954</v>
+      </c>
+      <c r="E37" s="16">
+        <v>366041.13242805976</v>
+      </c>
+      <c r="F37" s="17">
+        <v>121923.28040752756</v>
+      </c>
+      <c r="G37" s="17">
+        <v>2291521.6548217083</v>
+      </c>
+      <c r="H37" s="17">
+        <v>6879663.8239285145</v>
+      </c>
+      <c r="I37" s="17">
+        <v>7810883.1460298952</v>
+      </c>
+      <c r="J37" s="17">
+        <v>6880321.6902052686</v>
+      </c>
+      <c r="K37" s="17">
+        <v>-930561.45582462661</v>
+      </c>
+      <c r="L37" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -448,7 +448,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -553,6 +553,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -562,7 +565,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -667,6 +670,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7810883.1460298952</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8143731.5480047083</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,7 +715,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -814,6 +820,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -823,7 +832,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -928,6 +937,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>6880321.6902052686</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7297493.1658864655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -970,7 +982,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1075,6 +1087,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1084,7 +1099,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1189,6 +1204,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-930561.45582462661</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-846238.38211824279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,11 +1228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="459548544"/>
-        <c:axId val="469115648"/>
+        <c:axId val="524770688"/>
+        <c:axId val="539599616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="459548544"/>
+        <c:axId val="524770688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1257,14 +1275,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="469115648"/>
+        <c:crossAx val="539599616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="469115648"/>
+        <c:axId val="539599616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,7 +1333,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459548544"/>
+        <c:crossAx val="524770688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,7 +1524,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1611,6 +1629,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>366041.13242805976</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>332848.40197481349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1625,8 +1646,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="572704640"/>
-        <c:axId val="572703104"/>
+        <c:axId val="629163904"/>
+        <c:axId val="629156480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1651,7 +1672,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1756,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45351</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,7 +1789,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1870,6 +1894,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.0022250976562499</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0390229492187499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,11 +1913,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="504455936"/>
-        <c:axId val="527997952"/>
+        <c:axId val="625724416"/>
+        <c:axId val="629154944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="504455936"/>
+        <c:axId val="625724416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1933,14 +1960,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527997952"/>
+        <c:crossAx val="629154944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="527997952"/>
+        <c:axId val="629154944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,12 +2018,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504455936"/>
+        <c:crossAx val="625724416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="572703104"/>
+        <c:axId val="629156480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,12 +2060,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="572704640"/>
+        <c:crossAx val="629163904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="572704640"/>
+        <c:axId val="629163904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572703104"/>
+        <c:crossAx val="629156480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2456,7 +2483,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA37"/>
+  <dimension ref="A1:AA38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4000,6 +4027,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>45380</v>
+      </c>
+      <c r="B38" s="15">
+        <v>3.0390229492187499</v>
+      </c>
+      <c r="C38" s="15">
+        <v>17.659999849999998</v>
+      </c>
+      <c r="D38" s="16">
+        <v>26.839619570961851</v>
+      </c>
+      <c r="E38" s="16">
+        <v>332848.40197481349</v>
+      </c>
+      <c r="F38" s="17">
+        <v>109524.80699771608</v>
+      </c>
+      <c r="G38" s="17">
+        <v>2401046.4618194243</v>
+      </c>
+      <c r="H38" s="17">
+        <v>7296835.2996097114</v>
+      </c>
+      <c r="I38" s="17">
+        <v>8143731.5480047083</v>
+      </c>
+      <c r="J38" s="17">
+        <v>7297493.1658864655</v>
+      </c>
+      <c r="K38" s="17">
+        <v>-846238.38211824279</v>
+      </c>
+      <c r="L38" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -448,7 +448,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -556,6 +556,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -565,7 +568,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -673,6 +676,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8143731.5480047083</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8428066.6876684092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -715,7 +721,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -823,6 +829,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,7 +841,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -940,6 +949,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7297493.1658864655</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7747706.8513460197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -982,7 +994,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1090,6 +1102,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,7 +1114,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1207,6 +1222,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-846238.38211824279</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-680359.83632238954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1228,11 +1246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="524770688"/>
-        <c:axId val="539599616"/>
+        <c:axId val="675099392"/>
+        <c:axId val="675100928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="524770688"/>
+        <c:axId val="675099392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1275,14 +1293,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="539599616"/>
+        <c:crossAx val="675100928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="539599616"/>
+        <c:axId val="675100928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1351,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524770688"/>
+        <c:crossAx val="675099392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1524,7 +1542,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1632,6 +1650,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>332848.40197481349</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>284335.13966370182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1646,8 +1667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="629163904"/>
-        <c:axId val="629156480"/>
+        <c:axId val="675167616"/>
+        <c:axId val="675165696"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1672,7 +1693,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1780,6 +1801,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>45380</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1789,7 +1813,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1897,6 +1921,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.0390229492187499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1081088867187501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,11 +1940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="625724416"/>
-        <c:axId val="629154944"/>
+        <c:axId val="675150080"/>
+        <c:axId val="675164160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="625724416"/>
+        <c:axId val="675150080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,14 +1987,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629154944"/>
+        <c:crossAx val="675164160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="629154944"/>
+        <c:axId val="675164160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,12 +2045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="625724416"/>
+        <c:crossAx val="675150080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="629156480"/>
+        <c:axId val="675165696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,12 +2087,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629163904"/>
+        <c:crossAx val="675167616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="629163904"/>
+        <c:axId val="675167616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2074,7 +2101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="629156480"/>
+        <c:crossAx val="675165696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2483,7 +2510,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4065,6 +4092,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>45412</v>
+      </c>
+      <c r="B39" s="15">
+        <v>3.1081088867187501</v>
+      </c>
+      <c r="C39" s="15">
+        <v>18.11000061</v>
+      </c>
+      <c r="D39" s="16">
+        <v>26.594314351352136</v>
+      </c>
+      <c r="E39" s="16">
+        <v>284335.13966370182</v>
+      </c>
+      <c r="F39" s="17">
+        <v>91481.717670411541</v>
+      </c>
+      <c r="G39" s="17">
+        <v>2492528.1794898356</v>
+      </c>
+      <c r="H39" s="17">
+        <v>7747048.9850692656</v>
+      </c>
+      <c r="I39" s="17">
+        <v>8428066.6876684092</v>
+      </c>
+      <c r="J39" s="17">
+        <v>7747706.8513460197</v>
+      </c>
+      <c r="K39" s="17">
+        <v>-680359.83632238954</v>
+      </c>
+      <c r="L39" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -588,97 +592,97 @@
                   <c:v>133057.78626791219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167517.16799780785</c:v>
+                  <c:v>167517.1680652448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>209123.5851968638</c:v>
+                  <c:v>209123.5658202371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>260275.18576464822</c:v>
+                  <c:v>260275.13658656832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>437051.31262262433</c:v>
+                  <c:v>437051.24032763776</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>589827.70011059835</c:v>
+                  <c:v>589827.62857830385</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>888806.09136624332</c:v>
+                  <c:v>888806.02103122673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1319010.550392495</c:v>
+                  <c:v>1319010.481298164</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1763676.4212813163</c:v>
+                  <c:v>1763676.3533594389</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1920895.2116506842</c:v>
+                  <c:v>1920895.1446143824</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2133454.6209823084</c:v>
+                  <c:v>2133454.5544761713</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2386078.2576552797</c:v>
+                  <c:v>2386078.1922119362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2783426.6719821105</c:v>
+                  <c:v>2783426.5590554052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3177957.0157916369</c:v>
+                  <c:v>3177956.9036157345</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3491367.8882929226</c:v>
+                  <c:v>3491367.7771099494</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3778915.2574131573</c:v>
+                  <c:v>3778915.1467994382</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3926375.3409039653</c:v>
+                  <c:v>3926375.2307351218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4106263.2945428016</c:v>
+                  <c:v>4106263.1847244794</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4259726.2363496125</c:v>
+                  <c:v>4259726.1270722775</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4430455.1153657371</c:v>
+                  <c:v>4430455.006317555</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4716133.4036750533</c:v>
+                  <c:v>4716133.2949023377</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4928970.1932542296</c:v>
+                  <c:v>4928970.084747429</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5114477.6274139844</c:v>
+                  <c:v>5114477.5194405084</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5370568.2510646563</c:v>
+                  <c:v>5370568.1436276669</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5718998.8921297649</c:v>
+                  <c:v>5718998.7851925138</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6083191.8155736588</c:v>
+                  <c:v>6083191.709301644</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6486276.3330609258</c:v>
+                  <c:v>6486276.2276792787</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6880146.601980241</c:v>
+                  <c:v>6880146.496732045</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7444842.0136018358</c:v>
+                  <c:v>7444841.9084968325</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7810883.1460298952</c:v>
+                  <c:v>7810883.0412011128</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8143731.5480047083</c:v>
+                  <c:v>8140840.9215566153</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8428066.6876684092</c:v>
+                  <c:v>8425176.0615711026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -861,97 +865,97 @@
                   <c:v>131800.09546521373</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>170637.52921398092</c:v>
+                  <c:v>170637.5292814179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215275.21819342475</c:v>
+                  <c:v>215275.19881800067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>262454.74910559482</c:v>
+                  <c:v>262454.70028731175</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>411291.93533102429</c:v>
+                  <c:v>411291.86860571749</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>563265.80093122798</c:v>
+                  <c:v>563265.73509901762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>801294.16393625352</c:v>
+                  <c:v>801294.10643324163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1155979.8827978123</c:v>
+                  <c:v>1155979.8319593659</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1645176.2592709265</c:v>
+                  <c:v>1645176.2076454265</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2016525.9004339518</c:v>
+                  <c:v>2016525.84297193</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2112757.4288516776</c:v>
+                  <c:v>2112757.3752357299</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2272518.8626229991</c:v>
+                  <c:v>2272518.812427165</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2452340.6509319474</c:v>
+                  <c:v>2452340.5580589124</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2811476.8556647277</c:v>
+                  <c:v>2811476.7648832737</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3278991.3368012891</c:v>
+                  <c:v>3278991.2420356562</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3560170.9704664377</c:v>
+                  <c:v>3560170.8764541284</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4053489.2149225362</c:v>
+                  <c:v>4053489.1122204475</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4091614.9930710532</c:v>
+                  <c:v>4091614.8943118565</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4287869.0150137786</c:v>
+                  <c:v>4287868.9157625558</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4342932.4123021867</c:v>
+                  <c:v>4342932.3159578331</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4430043.0691781146</c:v>
+                  <c:v>4430042.9775149552</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4846029.7311005173</c:v>
+                  <c:v>4846029.6354992222</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5060472.4033898367</c:v>
+                  <c:v>5060472.3077509608</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4971815.2362525882</c:v>
+                  <c:v>4971815.1476665037</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5097075.3754059775</c:v>
+                  <c:v>5097075.2912965305</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5302046.0697069839</c:v>
+                  <c:v>5302045.9888905203</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5595275.768923969</c:v>
+                  <c:v>5595275.6906725438</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5931030.6730265608</c:v>
+                  <c:v>5931030.5957214404</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5708530.6005531531</c:v>
+                  <c:v>5708530.53365268</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6880321.6902052686</c:v>
+                  <c:v>6880321.614137033</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7297493.1658864655</c:v>
+                  <c:v>7294602.567266562</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7747706.8513460197</c:v>
+                  <c:v>7744750.54126132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,97 +1138,97 @@
                   <c:v>-1257.6908026984602</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3120.3612161730707</c:v>
+                  <c:v>3120.3612161730998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6151.6329965609475</c:v>
+                  <c:v>6151.632997763576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2179.5633409465954</c:v>
+                  <c:v>2179.563700743427</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25759.377291600045</c:v>
+                  <c:v>-25759.371721920266</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-26561.899179370375</c:v>
+                  <c:v>-26561.893479286227</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-87511.927429989795</c:v>
+                  <c:v>-87511.914597985102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-163030.66759468266</c:v>
+                  <c:v>-163030.64933879813</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-118500.16201038985</c:v>
+                  <c:v>-118500.14571401244</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95630.688783267513</c:v>
+                  <c:v>95630.698357547633</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-20697.192130630836</c:v>
+                  <c:v>-20697.179240441415</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-113559.39503228059</c:v>
+                  <c:v>-113559.37978477124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-331086.02105016308</c:v>
+                  <c:v>-331086.0009964928</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-366480.16012690915</c:v>
+                  <c:v>-366480.13873246079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-212376.55149163352</c:v>
+                  <c:v>-212376.53507429315</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-218744.28694671951</c:v>
+                  <c:v>-218744.27034530975</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>127113.87401857087</c:v>
+                  <c:v>127113.88148532575</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-14648.301471748389</c:v>
+                  <c:v>-14648.29041262297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28142.778664166108</c:v>
+                  <c:v>28142.788690278307</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-87522.703063550405</c:v>
+                  <c:v>-87522.690359721892</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-286090.33449693862</c:v>
+                  <c:v>-286090.3173873825</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-82940.462153712288</c:v>
+                  <c:v>-82940.449248206802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-54005.224024147727</c:v>
+                  <c:v>-54005.211689547636</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-398753.01481206808</c:v>
+                  <c:v>-398752.99596116319</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-621923.51672378741</c:v>
+                  <c:v>-621923.49389598332</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-781145.74586667493</c:v>
+                  <c:v>-781145.72041112371</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-891000.56413695682</c:v>
+                  <c:v>-891000.53700673487</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-949115.92895368021</c:v>
+                  <c:v>-949115.90101060458</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1736311.4130486827</c:v>
+                  <c:v>-1736311.3748441525</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-930561.45582462661</c:v>
+                  <c:v>-930561.42706407979</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-846238.38211824279</c:v>
+                  <c:v>-846238.35429005325</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-680359.83632238954</c:v>
+                  <c:v>-680425.52030978259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,11 +1250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675099392"/>
-        <c:axId val="675100928"/>
+        <c:axId val="506708736"/>
+        <c:axId val="506711424"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="675099392"/>
+        <c:axId val="506708736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,14 +1297,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675100928"/>
+        <c:crossAx val="506711424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="675100928"/>
+        <c:axId val="506711424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1355,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675099392"/>
+        <c:crossAx val="506708736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1562,97 +1566,97 @@
                   <c:v>87657.679798291982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34459.381729895649</c:v>
+                  <c:v>34459.3817973326</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41606.417199055955</c:v>
+                  <c:v>41606.397754992307</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51151.60056778443</c:v>
+                  <c:v>51151.570766331228</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>176776.12685797611</c:v>
+                  <c:v>176776.10374106947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>152776.38748797405</c:v>
+                  <c:v>152776.38825066606</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>298978.39125564491</c:v>
+                  <c:v>298978.39245292288</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>430204.45902625163</c:v>
+                  <c:v>430204.46026693727</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>444665.87088882137</c:v>
+                  <c:v>444665.872061275</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157218.79036936784</c:v>
+                  <c:v>157218.79125494338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>212559.40933162411</c:v>
+                  <c:v>212559.40986178888</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>252623.6366729713</c:v>
+                  <c:v>252623.63773576493</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>397348.414326831</c:v>
+                  <c:v>397348.36684346898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>394530.34380952618</c:v>
+                  <c:v>394530.34456032957</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>313410.87250128563</c:v>
+                  <c:v>313410.87349421479</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>287547.36912023439</c:v>
+                  <c:v>287547.36968948861</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>147460.08349080823</c:v>
+                  <c:v>147460.08393568356</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>179887.95363883613</c:v>
+                  <c:v>179887.95398935772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>153462.94180681123</c:v>
+                  <c:v>153462.94234779794</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>170728.87901612459</c:v>
+                  <c:v>170728.87924527752</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>285678.28830931569</c:v>
+                  <c:v>285678.28858478251</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>212836.78957917634</c:v>
+                  <c:v>212836.78984509152</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>185507.43415975483</c:v>
+                  <c:v>185507.43469307973</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>256090.62365067154</c:v>
+                  <c:v>256090.62418715825</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>348430.64106510871</c:v>
+                  <c:v>348430.6415648465</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>364192.92344389425</c:v>
+                  <c:v>364192.9241091304</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>403084.51748726668</c:v>
+                  <c:v>403084.51837763441</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>393870.26891931542</c:v>
+                  <c:v>393870.26905276586</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>564695.41162159434</c:v>
+                  <c:v>564695.41176478763</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>366041.13242805976</c:v>
+                  <c:v>366041.1327042802</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>332848.40197481349</c:v>
+                  <c:v>329957.88035550242</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>284335.13966370182</c:v>
+                  <c:v>284335.14001448749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,8 +1671,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="675167616"/>
-        <c:axId val="675165696"/>
+        <c:axId val="693315456"/>
+        <c:axId val="693230592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1940,11 +1944,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="675150080"/>
-        <c:axId val="675164160"/>
+        <c:axId val="507323520"/>
+        <c:axId val="507325440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="675150080"/>
+        <c:axId val="507323520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,14 +1991,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675164160"/>
+        <c:crossAx val="507325440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="675164160"/>
+        <c:axId val="507325440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,12 +2049,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675150080"/>
+        <c:crossAx val="507323520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="675165696"/>
+        <c:axId val="693230592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,12 +2091,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="675167616"/>
+        <c:crossAx val="693315456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="675167616"/>
+        <c:axId val="693315456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="675165696"/>
+        <c:crossAx val="693230592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2591,7 +2595,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2643,13 +2647,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2661,10 +2665,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -2719,25 +2723,25 @@
         <v>44561</v>
       </c>
       <c r="Q4" s="9">
-        <v>260275.18576464822</v>
+        <v>260275.13658656832</v>
       </c>
       <c r="R4" s="4">
-        <v>260275.18576464822</v>
+        <v>260275.13658656832</v>
       </c>
       <c r="S4" s="4">
-        <v>262454.74910559482</v>
+        <v>262454.70028731175</v>
       </c>
       <c r="T4" s="4">
-        <v>2179.5633409465954</v>
+        <v>2179.563700743427</v>
       </c>
       <c r="U4" s="4">
         <v>657.86627675392538</v>
       </c>
       <c r="V4" s="8">
-        <v>8.3740727512819774E-3</v>
+        <v>8.374075715904955E-3</v>
       </c>
       <c r="W4" s="8">
-        <v>8.3740727512819774E-3</v>
+        <v>8.374075715904955E-3</v>
       </c>
       <c r="Y4" s="19">
         <v>44925</v>
@@ -2792,22 +2796,22 @@
         <v>44925</v>
       </c>
       <c r="Q5" s="9">
-        <v>3518640.0716485092</v>
+        <v>3518640.0102128698</v>
       </c>
       <c r="R5" s="4">
-        <v>3778915.2574131573</v>
+        <v>3778915.1467994382</v>
       </c>
       <c r="S5" s="4">
-        <v>3560170.9704664377</v>
+        <v>3560170.8764541284</v>
       </c>
       <c r="T5" s="4">
-        <v>-218744.28694671951</v>
+        <v>-218744.27034530975</v>
       </c>
       <c r="U5" s="4">
         <v>657.86627675392538</v>
       </c>
       <c r="V5" s="8">
-        <v>-5.7885470312573274E-2</v>
+        <v>-5.7885467613787454E-2</v>
       </c>
       <c r="W5" s="8">
         <v>-5.4345791240333341E-2</v>
@@ -2947,31 +2951,31 @@
         <v>4.8678999999999997</v>
       </c>
       <c r="C9" s="15">
-        <v>36.299999239999998</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="D9" s="16">
-        <v>39.253623134275358</v>
+        <v>39.253623134226025</v>
       </c>
       <c r="E9" s="16">
-        <v>34459.381729895649</v>
+        <v>34459.3817973326</v>
       </c>
       <c r="F9" s="17">
-        <v>7078.9009079676352</v>
+        <v>7078.9009218210322</v>
       </c>
       <c r="G9" s="17">
-        <v>34918.478797269257</v>
+        <v>34918.478811122659</v>
       </c>
       <c r="H9" s="17">
-        <v>169979.662937227</v>
+        <v>169979.66300466398</v>
       </c>
       <c r="I9" s="17">
-        <v>167517.16799780785</v>
+        <v>167517.1680652448</v>
       </c>
       <c r="J9" s="17">
-        <v>170637.52921398092</v>
+        <v>170637.5292814179</v>
       </c>
       <c r="K9" s="17">
-        <v>3120.3612161730707</v>
+        <v>3120.3612161730998</v>
       </c>
       <c r="L9" s="16">
         <v>657.86627675392538</v>
@@ -2986,31 +2990,31 @@
         <v>4.9547099609374996</v>
       </c>
       <c r="C10" s="15">
-        <v>35.450000000000003</v>
+        <v>35.450000762939453</v>
       </c>
       <c r="D10" s="16">
-        <v>38.695499988749994</v>
+        <v>38.695499993324269</v>
       </c>
       <c r="E10" s="16">
-        <v>41606.417199055955</v>
+        <v>41606.397754992307</v>
       </c>
       <c r="F10" s="17">
-        <v>8397.3466715665127</v>
+        <v>8397.3427472069034</v>
       </c>
       <c r="G10" s="17">
-        <v>43315.82546883577</v>
+        <v>43315.821558329561</v>
       </c>
       <c r="H10" s="17">
-        <v>214617.35191667083</v>
+        <v>214617.33254124675</v>
       </c>
       <c r="I10" s="17">
-        <v>209123.5851968638</v>
+        <v>209123.5658202371</v>
       </c>
       <c r="J10" s="17">
-        <v>215275.21819342475</v>
+        <v>215275.19881800067</v>
       </c>
       <c r="K10" s="17">
-        <v>6151.6329965609475</v>
+        <v>6151.632997763576</v>
       </c>
       <c r="L10" s="16">
         <v>657.86627675392538</v>
@@ -3025,31 +3029,31 @@
         <v>4.8630097656249998</v>
       </c>
       <c r="C11" s="15">
-        <v>34.630000000000003</v>
+        <v>34.630001068115234</v>
       </c>
       <c r="D11" s="16">
-        <v>38.228579205136612</v>
+        <v>38.2285792249669</v>
       </c>
       <c r="E11" s="16">
-        <v>51151.60056778443</v>
+        <v>51151.570766331228</v>
       </c>
       <c r="F11" s="17">
-        <v>10518.506651859534</v>
+        <v>10518.500523668426</v>
       </c>
       <c r="G11" s="17">
-        <v>53834.332120695304</v>
+        <v>53834.322081997991</v>
       </c>
       <c r="H11" s="17">
-        <v>261796.88282884087</v>
+        <v>261796.8340105578</v>
       </c>
       <c r="I11" s="17">
-        <v>260275.18576464822</v>
+        <v>260275.13658656832</v>
       </c>
       <c r="J11" s="17">
-        <v>262454.74910559482</v>
+        <v>262454.70028731175</v>
       </c>
       <c r="K11" s="17">
-        <v>2179.5633409465954</v>
+        <v>2179.563700743427</v>
       </c>
       <c r="L11" s="16">
         <v>657.86627675392538</v>
@@ -3064,31 +3068,31 @@
         <v>4.3440297851562502</v>
       </c>
       <c r="C12" s="15">
-        <v>31.02</v>
+        <v>31.020000457763672</v>
       </c>
       <c r="D12" s="16">
-        <v>37.709801928118821</v>
+        <v>37.709801948471814</v>
       </c>
       <c r="E12" s="16">
-        <v>176776.12685797611</v>
+        <v>176776.10374106947</v>
       </c>
       <c r="F12" s="17">
-        <v>40694.041155525287</v>
+        <v>40694.035833990267</v>
       </c>
       <c r="G12" s="17">
-        <v>94528.373276220591</v>
+        <v>94528.35791598825</v>
       </c>
       <c r="H12" s="17">
-        <v>410634.06905427034</v>
+        <v>410634.00232896354</v>
       </c>
       <c r="I12" s="17">
-        <v>437051.31262262433</v>
+        <v>437051.24032763776</v>
       </c>
       <c r="J12" s="17">
-        <v>411291.93533102429</v>
+        <v>411291.86860571749</v>
       </c>
       <c r="K12" s="17">
-        <v>-25759.377291600045</v>
+        <v>-25759.371721920266</v>
       </c>
       <c r="L12" s="16">
         <v>657.86627675392538</v>
@@ -3103,31 +3107,31 @@
         <v>4.3355400390624999</v>
       </c>
       <c r="C13" s="15">
-        <v>30.969999309999999</v>
+        <v>30.969999313354492</v>
       </c>
       <c r="D13" s="16">
-        <v>37.189128385091756</v>
+        <v>37.189128403969853</v>
       </c>
       <c r="E13" s="16">
-        <v>152776.38748797405</v>
+        <v>152776.38825066606</v>
       </c>
       <c r="F13" s="17">
-        <v>35238.144755090259</v>
+        <v>35238.144931006522</v>
       </c>
       <c r="G13" s="17">
-        <v>129766.51803131084</v>
+        <v>129766.50284699477</v>
       </c>
       <c r="H13" s="17">
-        <v>562607.93465447403</v>
+        <v>562607.86882226367</v>
       </c>
       <c r="I13" s="17">
-        <v>589827.70011059835</v>
+        <v>589827.62857830385</v>
       </c>
       <c r="J13" s="17">
-        <v>563265.80093122798</v>
+        <v>563265.73509901762</v>
       </c>
       <c r="K13" s="17">
-        <v>-26561.899179370375</v>
+        <v>-26561.893479286227</v>
       </c>
       <c r="L13" s="16">
         <v>657.86627675392538</v>
@@ -3142,31 +3146,31 @@
         <v>3.8658500976562502</v>
       </c>
       <c r="C14" s="15">
-        <v>27.63999939</v>
+        <v>27.639999389648438</v>
       </c>
       <c r="D14" s="16">
-        <v>36.340041456763494</v>
+        <v>36.340041473831867</v>
       </c>
       <c r="E14" s="16">
-        <v>298978.39125564491</v>
+        <v>298978.39245292288</v>
       </c>
       <c r="F14" s="17">
-        <v>77338.330173978189</v>
+        <v>77338.330483684447</v>
       </c>
       <c r="G14" s="17">
-        <v>207104.84820528905</v>
+        <v>207104.83333067922</v>
       </c>
       <c r="H14" s="17">
-        <v>800636.29765949957</v>
+        <v>800636.24015648768</v>
       </c>
       <c r="I14" s="17">
-        <v>888806.09136624332</v>
+        <v>888806.02103122673</v>
       </c>
       <c r="J14" s="17">
-        <v>801294.16393625352</v>
+        <v>801294.10643324163</v>
       </c>
       <c r="K14" s="17">
-        <v>-87511.927429989795</v>
+        <v>-87511.914597985102</v>
       </c>
       <c r="L14" s="16">
         <v>657.86627675392538</v>
@@ -3181,31 +3185,31 @@
         <v>3.5012099609375</v>
       </c>
       <c r="C15" s="15">
-        <v>25.129999160000001</v>
+        <v>25.129999160766602</v>
       </c>
       <c r="D15" s="16">
-        <v>35.566115356769217</v>
+        <v>35.566115372584406</v>
       </c>
       <c r="E15" s="16">
-        <v>430204.45902625163</v>
+        <v>430204.46026693727</v>
       </c>
       <c r="F15" s="17">
-        <v>122873.08211332122</v>
+        <v>122873.08246768033</v>
       </c>
       <c r="G15" s="17">
-        <v>329977.93031861028</v>
+        <v>329977.91579835955</v>
       </c>
       <c r="H15" s="17">
-        <v>1155322.0165210585</v>
+        <v>1155321.965682612</v>
       </c>
       <c r="I15" s="17">
-        <v>1319010.550392495</v>
+        <v>1319010.481298164</v>
       </c>
       <c r="J15" s="17">
-        <v>1155979.8827978123</v>
+        <v>1155979.8319593659</v>
       </c>
       <c r="K15" s="17">
-        <v>-163030.66759468266</v>
+        <v>-163030.64933879813</v>
       </c>
       <c r="L15" s="16">
         <v>657.86627675392538</v>
@@ -3220,31 +3224,31 @@
         <v>3.6361599121093748</v>
       </c>
       <c r="C16" s="15">
-        <v>24.129999160000001</v>
+        <v>24.129999160766602</v>
       </c>
       <c r="D16" s="16">
-        <v>34.740071647956981</v>
+        <v>34.740071662711408</v>
       </c>
       <c r="E16" s="16">
-        <v>444665.87088882137</v>
+        <v>444665.872061275</v>
       </c>
       <c r="F16" s="17">
-        <v>122289.96568824335</v>
+        <v>122289.96601068616</v>
       </c>
       <c r="G16" s="17">
-        <v>452267.89600685361</v>
+        <v>452267.88180904568</v>
       </c>
       <c r="H16" s="17">
-        <v>1644518.3929941726</v>
+        <v>1644518.3413686727</v>
       </c>
       <c r="I16" s="17">
-        <v>1763676.4212813163</v>
+        <v>1763676.3533594389</v>
       </c>
       <c r="J16" s="17">
-        <v>1645176.2592709265</v>
+        <v>1645176.2076454265</v>
       </c>
       <c r="K16" s="17">
-        <v>-118500.16201038985</v>
+        <v>-118500.14571401244</v>
       </c>
       <c r="L16" s="16">
         <v>657.86627675392538</v>
@@ -3259,31 +3263,31 @@
         <v>4.1096201171875002</v>
       </c>
       <c r="C17" s="15">
-        <v>27.809999470000001</v>
+        <v>27.809999465942383</v>
       </c>
       <c r="D17" s="16">
-        <v>34.118899961366665</v>
+        <v>34.118899975077305</v>
       </c>
       <c r="E17" s="16">
-        <v>157218.79036936784</v>
+        <v>157218.79125494338</v>
       </c>
       <c r="F17" s="17">
-        <v>38256.28303497882</v>
+        <v>38256.283250467241</v>
       </c>
       <c r="G17" s="17">
-        <v>490524.17904183245</v>
+        <v>490524.16505951295</v>
       </c>
       <c r="H17" s="17">
-        <v>2015868.0341571979</v>
+        <v>2015867.9766951762</v>
       </c>
       <c r="I17" s="17">
-        <v>1920895.2116506842</v>
+        <v>1920895.1446143824</v>
       </c>
       <c r="J17" s="17">
-        <v>2016525.9004339518</v>
+        <v>2016525.84297193</v>
       </c>
       <c r="K17" s="17">
-        <v>95630.688783267513</v>
+        <v>95630.698357547633</v>
       </c>
       <c r="L17" s="16">
         <v>657.86627675392538</v>
@@ -3298,31 +3302,31 @@
         <v>3.8724699707031252</v>
       </c>
       <c r="C18" s="15">
-        <v>26.329999919999999</v>
+        <v>26.329999923706055</v>
       </c>
       <c r="D18" s="16">
-        <v>33.665700887975071</v>
+        <v>33.665700900829464</v>
       </c>
       <c r="E18" s="16">
-        <v>212559.40933162411</v>
+        <v>212559.40986178888</v>
       </c>
       <c r="F18" s="17">
-        <v>54889.879312099518</v>
+        <v>54889.879449005624</v>
       </c>
       <c r="G18" s="17">
-        <v>545414.05835393199</v>
+        <v>545414.04450851853</v>
       </c>
       <c r="H18" s="17">
-        <v>2112099.5625749235</v>
+        <v>2112099.5089589758</v>
       </c>
       <c r="I18" s="17">
-        <v>2133454.6209823084</v>
+        <v>2133454.5544761713</v>
       </c>
       <c r="J18" s="17">
-        <v>2112757.4288516776</v>
+        <v>2112757.3752357299</v>
       </c>
       <c r="K18" s="17">
-        <v>-20697.192130630836</v>
+        <v>-20697.179240441415</v>
       </c>
       <c r="L18" s="16">
         <v>657.86627675392538</v>
@@ -3337,31 +3341,31 @@
         <v>3.7022099609375001</v>
       </c>
       <c r="C19" s="15">
-        <v>25.18000031</v>
+        <v>25.180000305175781</v>
       </c>
       <c r="D19" s="16">
-        <v>33.177209264156971</v>
+        <v>33.177209276154976</v>
       </c>
       <c r="E19" s="16">
-        <v>252623.6366729713</v>
+        <v>252623.63773576493</v>
       </c>
       <c r="F19" s="17">
-        <v>68235.902160719197</v>
+        <v>68235.902447789253</v>
       </c>
       <c r="G19" s="17">
-        <v>613649.96051465115</v>
+        <v>613649.94695630774</v>
       </c>
       <c r="H19" s="17">
-        <v>2271860.9963462451</v>
+        <v>2271860.9461504109</v>
       </c>
       <c r="I19" s="17">
-        <v>2386078.2576552797</v>
+        <v>2386078.1922119362</v>
       </c>
       <c r="J19" s="17">
-        <v>2272518.8626229991</v>
+        <v>2272518.812427165</v>
       </c>
       <c r="K19" s="17">
-        <v>-113559.39503228059</v>
+        <v>-113559.37978477124</v>
       </c>
       <c r="L19" s="16">
         <v>657.86627675392538</v>
@@ -3376,31 +3380,31 @@
         <v>3.3477299804687499</v>
       </c>
       <c r="C20" s="15">
-        <v>22.61</v>
+        <v>22.610000610351563</v>
       </c>
       <c r="D20" s="16">
-        <v>32.639682710465742</v>
+        <v>32.639682721540886</v>
       </c>
       <c r="E20" s="16">
-        <v>397348.414326831</v>
+        <v>397348.36684346898</v>
       </c>
       <c r="F20" s="17">
-        <v>118691.89470029903</v>
+        <v>118691.88051654995</v>
       </c>
       <c r="G20" s="17">
-        <v>732341.85521495016</v>
+        <v>732341.82747285767</v>
       </c>
       <c r="H20" s="17">
-        <v>2451682.7846551933</v>
+        <v>2451682.6917821583</v>
       </c>
       <c r="I20" s="17">
-        <v>2783426.6719821105</v>
+        <v>2783426.5590554052</v>
       </c>
       <c r="J20" s="17">
-        <v>2452340.6509319474</v>
+        <v>2452340.5580589124</v>
       </c>
       <c r="K20" s="17">
-        <v>-331086.02105016308</v>
+        <v>-331086.0009964928</v>
       </c>
       <c r="L20" s="16">
         <v>657.86627675392538</v>
@@ -3416,31 +3420,31 @@
         <v>3.2993999023437501</v>
       </c>
       <c r="C21" s="15">
-        <v>22.239999770000001</v>
+        <v>22.239999771118164</v>
       </c>
       <c r="D21" s="16">
-        <v>32.234052986719142</v>
+        <v>32.234052997346801</v>
       </c>
       <c r="E21" s="16">
-        <v>394530.34380952618</v>
+        <v>394530.34456032957</v>
       </c>
       <c r="F21" s="17">
-        <v>119576.3943404584</v>
+        <v>119576.39456801595</v>
       </c>
       <c r="G21" s="17">
-        <v>851918.24955540861</v>
+        <v>851918.2220408736</v>
       </c>
       <c r="H21" s="17">
-        <v>2810818.9893879737</v>
+        <v>2810818.8986065197</v>
       </c>
       <c r="I21" s="17">
-        <v>3177957.0157916369</v>
+        <v>3177956.9036157345</v>
       </c>
       <c r="J21" s="17">
-        <v>2811476.8556647277</v>
+        <v>2811476.7648832737</v>
       </c>
       <c r="K21" s="17">
-        <v>-366480.16012690915</v>
+        <v>-366480.13873246079</v>
       </c>
       <c r="L21" s="16">
         <v>657.86627675392538</v>
@@ -3454,31 +3458,31 @@
         <v>3.4802900390625</v>
       </c>
       <c r="C22" s="15">
-        <v>22.809999470000001</v>
+        <v>22.809999465942383</v>
       </c>
       <c r="D22" s="16">
-        <v>31.717553830421821</v>
+        <v>31.717553840474388</v>
       </c>
       <c r="E22" s="16">
-        <v>313410.87250128563</v>
+        <v>313410.87349421479</v>
       </c>
       <c r="F22" s="17">
-        <v>90053.0901113375</v>
+        <v>90053.090396638188</v>
       </c>
       <c r="G22" s="17">
-        <v>941971.33966674609</v>
+        <v>941971.31243751175</v>
       </c>
       <c r="H22" s="17">
-        <v>3278333.470524535</v>
+        <v>3278333.3757589022</v>
       </c>
       <c r="I22" s="17">
-        <v>3491367.8882929226</v>
+        <v>3491367.7771099494</v>
       </c>
       <c r="J22" s="17">
-        <v>3278991.3368012891</v>
+        <v>3278991.2420356562</v>
       </c>
       <c r="K22" s="17">
-        <v>-212376.55149163352</v>
+        <v>-212376.53507429315</v>
       </c>
       <c r="L22" s="16">
         <v>657.86627675392538</v>
@@ -3492,31 +3496,31 @@
         <v>3.4735300292968749</v>
       </c>
       <c r="C23" s="15">
-        <v>22.739999770000001</v>
+        <v>22.739999771118164</v>
       </c>
       <c r="D23" s="16">
-        <v>31.272103983435283</v>
+        <v>31.2721039929989</v>
       </c>
       <c r="E23" s="16">
-        <v>287547.36912023439</v>
+        <v>287547.36968948861</v>
       </c>
       <c r="F23" s="17">
-        <v>82782.462421504039</v>
+        <v>82782.462585387533</v>
       </c>
       <c r="G23" s="17">
-        <v>1024753.8020882502</v>
+        <v>1024753.7750228993</v>
       </c>
       <c r="H23" s="17">
-        <v>3559513.1041896837</v>
+        <v>3559513.0101773744</v>
       </c>
       <c r="I23" s="17">
-        <v>3778915.2574131573</v>
+        <v>3778915.1467994382</v>
       </c>
       <c r="J23" s="17">
-        <v>3560170.9704664377</v>
+        <v>3560170.8764541284</v>
       </c>
       <c r="K23" s="17">
-        <v>-218744.28694671951</v>
+        <v>-218744.27034530975</v>
       </c>
       <c r="L23" s="16">
         <v>657.86627675392538</v>
@@ -3533,28 +3537,28 @@
         <v>24.899999618530273</v>
       </c>
       <c r="D24" s="16">
-        <v>31.009964160696924</v>
+        <v>31.009964169913562</v>
       </c>
       <c r="E24" s="16">
-        <v>147460.08349080823</v>
+        <v>147460.08393568356</v>
       </c>
       <c r="F24" s="17">
-        <v>38692.936203457255</v>
+        <v>38692.936320190762</v>
       </c>
       <c r="G24" s="17">
-        <v>1063446.7382917074</v>
+        <v>1063446.71134309</v>
       </c>
       <c r="H24" s="17">
-        <v>4052831.3486457821</v>
+        <v>4052831.2459436934</v>
       </c>
       <c r="I24" s="17">
-        <v>3926375.3409039653</v>
+        <v>3926375.2307351218</v>
       </c>
       <c r="J24" s="17">
-        <v>4053489.2149225362</v>
+        <v>4053489.1122204475</v>
       </c>
       <c r="K24" s="17">
-        <v>127113.87401857087</v>
+        <v>127113.88148532575</v>
       </c>
       <c r="L24" s="16">
         <v>657.86627675392538</v>
@@ -3568,31 +3572,31 @@
         <v>3.6777292480468748</v>
       </c>
       <c r="C25" s="15">
-        <v>23.979999540000001</v>
+        <v>23.979999542236328</v>
       </c>
       <c r="D25" s="16">
-        <v>30.728425585070163</v>
+        <v>30.72842559388133</v>
       </c>
       <c r="E25" s="16">
-        <v>179887.95363883613</v>
+        <v>179887.95398935772</v>
       </c>
       <c r="F25" s="17">
-        <v>48912.777832780623</v>
+        <v>48912.777928089869</v>
       </c>
       <c r="G25" s="17">
-        <v>1112359.5161244881</v>
+        <v>1112359.48927118</v>
       </c>
       <c r="H25" s="17">
-        <v>4090957.1267942991</v>
+        <v>4090957.0280351024</v>
       </c>
       <c r="I25" s="17">
-        <v>4106263.2945428016</v>
+        <v>4106263.1847244794</v>
       </c>
       <c r="J25" s="17">
-        <v>4091614.9930710532</v>
+        <v>4091614.8943118565</v>
       </c>
       <c r="K25" s="17">
-        <v>-14648.301471748389</v>
+        <v>-14648.29041262297</v>
       </c>
       <c r="L25" s="16">
         <v>657.86627675392538</v>
@@ -3606,31 +3610,31 @@
         <v>3.7161979980468751</v>
       </c>
       <c r="C26" s="15">
-        <v>24.159999849999998</v>
+        <v>24.159999847412109</v>
       </c>
       <c r="D26" s="16">
-        <v>30.393087180738309</v>
+        <v>30.393087189136843</v>
       </c>
       <c r="E26" s="16">
-        <v>153462.94180681123</v>
+        <v>153462.94234779794</v>
       </c>
       <c r="F26" s="17">
-        <v>41295.684968203219</v>
+        <v>41295.685113778534</v>
       </c>
       <c r="G26" s="17">
-        <v>1153655.2010926914</v>
+        <v>1153655.1743849586</v>
       </c>
       <c r="H26" s="17">
-        <v>4287211.1487370245</v>
+        <v>4287211.0494858017</v>
       </c>
       <c r="I26" s="17">
-        <v>4259726.2363496125</v>
+        <v>4259726.1270722775</v>
       </c>
       <c r="J26" s="17">
-        <v>4287869.0150137786</v>
+        <v>4287868.9157625558</v>
       </c>
       <c r="K26" s="17">
-        <v>28142.778664166108</v>
+        <v>28142.788690278307</v>
       </c>
       <c r="L26" s="16">
         <v>657.86627675392538</v>
@@ -3644,31 +3648,31 @@
         <v>3.6159379882812499</v>
       </c>
       <c r="C27" s="15">
-        <v>23.579999919999999</v>
+        <v>23.579999923706055</v>
       </c>
       <c r="D27" s="16">
-        <v>30.154382097569265</v>
+        <v>30.1543821056874</v>
       </c>
       <c r="E27" s="16">
-        <v>170728.87901612459</v>
+        <v>170728.87924527752</v>
       </c>
       <c r="F27" s="17">
-        <v>47215.654574119646</v>
+        <v>47215.654637492669</v>
       </c>
       <c r="G27" s="17">
-        <v>1200870.8556668111</v>
+        <v>1200870.8290224513</v>
       </c>
       <c r="H27" s="17">
-        <v>4342274.5460254326</v>
+        <v>4342274.449681079</v>
       </c>
       <c r="I27" s="17">
-        <v>4430455.1153657371</v>
+        <v>4430455.006317555</v>
       </c>
       <c r="J27" s="17">
-        <v>4342932.4123021867</v>
+        <v>4342932.3159578331</v>
       </c>
       <c r="K27" s="17">
-        <v>-87522.703063550405</v>
+        <v>-87522.690359721892</v>
       </c>
       <c r="L27" s="16">
         <v>657.86627675392538</v>
@@ -3682,31 +3686,31 @@
         <v>3.4505849609374999</v>
       </c>
       <c r="C28" s="15">
-        <v>21.329999919999999</v>
+        <v>21.329999923706055</v>
       </c>
       <c r="D28" s="16">
-        <v>29.834329246495866</v>
+        <v>29.834329254302094</v>
       </c>
       <c r="E28" s="16">
-        <v>285678.28830931569</v>
+        <v>285678.28858478251</v>
       </c>
       <c r="F28" s="17">
-        <v>82791.263378050222</v>
+        <v>82791.263457882145</v>
       </c>
       <c r="G28" s="17">
-        <v>1283662.1190448613</v>
+        <v>1283662.0924803335</v>
       </c>
       <c r="H28" s="17">
-        <v>4429385.2029013606</v>
+        <v>4429385.1112382011</v>
       </c>
       <c r="I28" s="17">
-        <v>4716133.4036750533</v>
+        <v>4716133.2949023377</v>
       </c>
       <c r="J28" s="17">
-        <v>4430043.0691781146</v>
+        <v>4430042.9775149552</v>
       </c>
       <c r="K28" s="17">
-        <v>-286090.33449693862</v>
+        <v>-286090.3173873825</v>
       </c>
       <c r="L28" s="16">
         <v>657.86627675392538</v>
@@ -3720,31 +3724,31 @@
         <v>3.608843017578125</v>
       </c>
       <c r="C29" s="15">
-        <v>22.200000760000002</v>
+        <v>22.200000762939453</v>
       </c>
       <c r="D29" s="16">
-        <v>29.540486543586262</v>
+        <v>29.540486551111261</v>
       </c>
       <c r="E29" s="16">
-        <v>212836.78957917634</v>
+        <v>212836.78984509152</v>
       </c>
       <c r="F29" s="17">
-        <v>58976.4610271161</v>
+        <v>58976.461100800429</v>
       </c>
       <c r="G29" s="17">
-        <v>1342638.5800719773</v>
+        <v>1342638.553581134</v>
       </c>
       <c r="H29" s="17">
-        <v>4845371.8648237633</v>
+        <v>4845371.7692224681</v>
       </c>
       <c r="I29" s="17">
-        <v>4928970.1932542296</v>
+        <v>4928970.084747429</v>
       </c>
       <c r="J29" s="17">
-        <v>4846029.7311005173</v>
+        <v>4846029.6354992222</v>
       </c>
       <c r="K29" s="17">
-        <v>-82940.462153712288</v>
+        <v>-82940.449248206802</v>
       </c>
       <c r="L29" s="16">
         <v>657.86627675392538</v>
@@ -3758,31 +3762,31 @@
         <v>3.6303940429687498</v>
       </c>
       <c r="C30" s="15">
-        <v>22.409999849999998</v>
+        <v>22.409999847412109</v>
       </c>
       <c r="D30" s="16">
-        <v>29.263021620154856</v>
+        <v>29.26302162741802</v>
       </c>
       <c r="E30" s="16">
-        <v>185507.43415975483</v>
+        <v>185507.43469307973</v>
       </c>
       <c r="F30" s="17">
-        <v>51098.429526965723</v>
+        <v>51098.429673871236</v>
       </c>
       <c r="G30" s="17">
-        <v>1393737.0095989432</v>
+        <v>1393736.9832550052</v>
       </c>
       <c r="H30" s="17">
-        <v>5059814.5371130826</v>
+        <v>5059814.4414742067</v>
       </c>
       <c r="I30" s="17">
-        <v>5114477.6274139844</v>
+        <v>5114477.5194405084</v>
       </c>
       <c r="J30" s="17">
-        <v>5060472.4033898367</v>
+        <v>5060472.3077509608</v>
       </c>
       <c r="K30" s="17">
-        <v>-54005.224024147727</v>
+        <v>-54005.211689547636</v>
       </c>
       <c r="L30" s="16">
         <v>657.86627675392538</v>
@@ -3796,31 +3800,31 @@
         <v>3.3830390625</v>
       </c>
       <c r="C31" s="15">
-        <v>20.899999619999999</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="D31" s="16">
-        <v>28.951898109092557</v>
+        <v>28.951898116056832</v>
       </c>
       <c r="E31" s="16">
-        <v>256090.62365067154</v>
+        <v>256090.62418715825</v>
       </c>
       <c r="F31" s="17">
-        <v>75698.393935015803</v>
+        <v>75698.39409359709</v>
       </c>
       <c r="G31" s="17">
-        <v>1469435.4035339591</v>
+        <v>1469435.3773486023</v>
       </c>
       <c r="H31" s="17">
-        <v>4971157.3699758342</v>
+        <v>4971157.2813897496</v>
       </c>
       <c r="I31" s="17">
-        <v>5370568.2510646563</v>
+        <v>5370568.1436276669</v>
       </c>
       <c r="J31" s="17">
-        <v>4971815.2362525882</v>
+        <v>4971815.1476665037</v>
       </c>
       <c r="K31" s="17">
-        <v>-398753.01481206808</v>
+        <v>-398752.99596116319</v>
       </c>
       <c r="L31" s="16">
         <v>657.86627675392538</v>
@@ -3837,28 +3841,28 @@
         <v>19.25</v>
       </c>
       <c r="D32" s="16">
-        <v>28.642033266404177</v>
+        <v>28.642033273139454</v>
       </c>
       <c r="E32" s="16">
-        <v>348430.64106510871</v>
+        <v>348430.6415648465</v>
       </c>
       <c r="F32" s="17">
-        <v>107834.40095441106</v>
+        <v>107834.4011090729</v>
       </c>
       <c r="G32" s="17">
-        <v>1577269.8044883702</v>
+        <v>1577269.7784576751</v>
       </c>
       <c r="H32" s="17">
-        <v>5096417.5091292234</v>
+        <v>5096417.4250197764</v>
       </c>
       <c r="I32" s="17">
-        <v>5718998.8921297649</v>
+        <v>5718998.7851925138</v>
       </c>
       <c r="J32" s="17">
-        <v>5097075.3754059775</v>
+        <v>5097075.2912965305</v>
       </c>
       <c r="K32" s="17">
-        <v>-621923.51672378741</v>
+        <v>-621923.49389598332</v>
       </c>
       <c r="L32" s="16">
         <v>657.86627675392538</v>
@@ -3872,31 +3876,31 @@
         <v>3.1302160644531249</v>
       </c>
       <c r="C33" s="15">
-        <v>18.770000459999999</v>
+        <v>18.770000457763672</v>
       </c>
       <c r="D33" s="16">
-        <v>28.372122106405978</v>
+        <v>28.372122112939287</v>
       </c>
       <c r="E33" s="16">
-        <v>364192.92344389425</v>
+        <v>364192.9241091304</v>
       </c>
       <c r="F33" s="17">
-        <v>116347.53510458449</v>
+        <v>116347.53531710533</v>
       </c>
       <c r="G33" s="17">
-        <v>1693617.3395929546</v>
+        <v>1693617.3137747804</v>
       </c>
       <c r="H33" s="17">
-        <v>5301388.2034302298</v>
+        <v>5301388.1226137662</v>
       </c>
       <c r="I33" s="17">
-        <v>6083191.8155736588</v>
+        <v>6083191.709301644</v>
       </c>
       <c r="J33" s="17">
-        <v>5302046.0697069839</v>
+        <v>5302045.9888905203</v>
       </c>
       <c r="K33" s="17">
-        <v>-781145.74586667493</v>
+        <v>-781145.72041112371</v>
       </c>
       <c r="L33" s="16">
         <v>657.86627675392538</v>
@@ -3910,31 +3914,31 @@
         <v>3.0653520507812502</v>
       </c>
       <c r="C34" s="15">
-        <v>17.93000031</v>
+        <v>17.930000305175781</v>
       </c>
       <c r="D34" s="16">
-        <v>28.031817636002071</v>
+        <v>28.031817642334733</v>
       </c>
       <c r="E34" s="16">
-        <v>403084.51748726668</v>
+        <v>403084.51837763441</v>
       </c>
       <c r="F34" s="17">
-        <v>131496.97353181167</v>
+        <v>131496.97382227349</v>
       </c>
       <c r="G34" s="17">
-        <v>1825114.3131247663</v>
+        <v>1825114.2875970539</v>
       </c>
       <c r="H34" s="17">
-        <v>5594617.9026472149</v>
+        <v>5594617.8243957898</v>
       </c>
       <c r="I34" s="17">
-        <v>6486276.3330609258</v>
+        <v>6486276.2276792787</v>
       </c>
       <c r="J34" s="17">
-        <v>5595275.768923969</v>
+        <v>5595275.6906725438</v>
       </c>
       <c r="K34" s="17">
-        <v>-891000.56413695682</v>
+        <v>-891000.53700673487</v>
       </c>
       <c r="L34" s="16">
         <v>657.86627675392538</v>
@@ -3948,31 +3952,31 @@
         <v>3.0335100097656249</v>
       </c>
       <c r="C35" s="15">
-        <v>17.709999079999999</v>
+        <v>17.709999084472656</v>
       </c>
       <c r="D35" s="16">
-        <v>27.695688446862572</v>
+        <v>27.695688453026897</v>
       </c>
       <c r="E35" s="16">
-        <v>393870.26891931542</v>
+        <v>393870.26905276586</v>
       </c>
       <c r="F35" s="17">
-        <v>129839.77888694906</v>
+        <v>129839.77893094115</v>
       </c>
       <c r="G35" s="17">
-        <v>1954954.0920117153</v>
+        <v>1954954.066527995</v>
       </c>
       <c r="H35" s="17">
-        <v>5930372.8067498067</v>
+        <v>5930372.7294446863</v>
       </c>
       <c r="I35" s="17">
-        <v>6880146.601980241</v>
+        <v>6880146.496732045</v>
       </c>
       <c r="J35" s="17">
-        <v>5931030.6730265608</v>
+        <v>5931030.5957214404</v>
       </c>
       <c r="K35" s="17">
-        <v>-949115.92895368021</v>
+        <v>-949115.90101060458</v>
       </c>
       <c r="L35" s="16">
         <v>657.86627675392538</v>
@@ -3986,31 +3990,31 @@
         <v>2.6308430175781252</v>
       </c>
       <c r="C36" s="15">
-        <v>15.380000109999999</v>
+        <v>15.380000114440918</v>
       </c>
       <c r="D36" s="16">
-        <v>27.336624370286405</v>
+        <v>27.336624376243282</v>
       </c>
       <c r="E36" s="16">
-        <v>564695.41162159434</v>
+        <v>564695.41176478763</v>
       </c>
       <c r="F36" s="17">
-        <v>214644.28240246576</v>
+        <v>214644.28245689443</v>
       </c>
       <c r="G36" s="17">
-        <v>2169598.3744141809</v>
+        <v>2169598.3489848897</v>
       </c>
       <c r="H36" s="17">
-        <v>5707872.734276399</v>
+        <v>5707872.6673759259</v>
       </c>
       <c r="I36" s="17">
-        <v>7444842.0136018358</v>
+        <v>7444841.9084968325</v>
       </c>
       <c r="J36" s="17">
-        <v>5708530.6005531531</v>
+        <v>5708530.53365268</v>
       </c>
       <c r="K36" s="17">
-        <v>-1736311.4130486827</v>
+        <v>-1736311.3748441525</v>
       </c>
       <c r="L36" s="16">
         <v>657.86627675392538</v>
@@ -4024,31 +4028,31 @@
         <v>3.0022250976562499</v>
       </c>
       <c r="C37" s="15">
-        <v>17.479999540000001</v>
+        <v>17.479999542236328</v>
       </c>
       <c r="D37" s="16">
-        <v>27.106454812893954</v>
+        <v>27.106454818762419</v>
       </c>
       <c r="E37" s="16">
-        <v>366041.13242805976</v>
+        <v>366041.1327042802</v>
       </c>
       <c r="F37" s="17">
-        <v>121923.28040752756</v>
+        <v>121923.2804995328</v>
       </c>
       <c r="G37" s="17">
-        <v>2291521.6548217083</v>
+        <v>2291521.6294844225</v>
       </c>
       <c r="H37" s="17">
-        <v>6879663.8239285145</v>
+        <v>6879663.7478602789</v>
       </c>
       <c r="I37" s="17">
-        <v>7810883.1460298952</v>
+        <v>7810883.0412011128</v>
       </c>
       <c r="J37" s="17">
-        <v>6880321.6902052686</v>
+        <v>6880321.614137033</v>
       </c>
       <c r="K37" s="17">
-        <v>-930561.45582462661</v>
+        <v>-930561.42706407979</v>
       </c>
       <c r="L37" s="16">
         <v>657.86627675392538</v>
@@ -4062,31 +4066,31 @@
         <v>3.0390229492187499</v>
       </c>
       <c r="C38" s="15">
-        <v>17.659999849999998</v>
+        <v>17.700000762939453</v>
       </c>
       <c r="D38" s="16">
-        <v>26.839619570961851</v>
+        <v>26.839674750359887</v>
       </c>
       <c r="E38" s="16">
-        <v>332848.40197481349</v>
+        <v>329957.88035550242</v>
       </c>
       <c r="F38" s="17">
-        <v>109524.80699771608</v>
+        <v>108573.67182446766</v>
       </c>
       <c r="G38" s="17">
-        <v>2401046.4618194243</v>
+        <v>2400095.3013088903</v>
       </c>
       <c r="H38" s="17">
-        <v>7296835.2996097114</v>
+        <v>7293944.700989808</v>
       </c>
       <c r="I38" s="17">
-        <v>8143731.5480047083</v>
+        <v>8140840.9215566153</v>
       </c>
       <c r="J38" s="17">
-        <v>7297493.1658864655</v>
+        <v>7294602.567266562</v>
       </c>
       <c r="K38" s="17">
-        <v>-846238.38211824279</v>
+        <v>-846238.35429005325</v>
       </c>
       <c r="L38" s="16">
         <v>657.86627675392538</v>
@@ -4100,31 +4104,31 @@
         <v>3.1081088867187501</v>
       </c>
       <c r="C39" s="15">
-        <v>18.11000061</v>
+        <v>18.110000610351563</v>
       </c>
       <c r="D39" s="16">
-        <v>26.594314351352136</v>
+        <v>26.594314356937268</v>
       </c>
       <c r="E39" s="16">
-        <v>284335.13966370182</v>
+        <v>284335.14001448749</v>
       </c>
       <c r="F39" s="17">
-        <v>91481.717670411541</v>
+        <v>91481.717783272994</v>
       </c>
       <c r="G39" s="17">
-        <v>2492528.1794898356</v>
+        <v>2491577.0190921635</v>
       </c>
       <c r="H39" s="17">
-        <v>7747048.9850692656</v>
+        <v>7744092.6749845659</v>
       </c>
       <c r="I39" s="17">
-        <v>8428066.6876684092</v>
+        <v>8425176.0615711026</v>
       </c>
       <c r="J39" s="17">
-        <v>7747706.8513460197</v>
+        <v>7744750.54126132</v>
       </c>
       <c r="K39" s="17">
-        <v>-680359.83632238954</v>
+        <v>-680425.52030978259</v>
       </c>
       <c r="L39" s="16">
         <v>657.86627675392538</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1250,11 +1246,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="506708736"/>
-        <c:axId val="506711424"/>
+        <c:axId val="511419904"/>
+        <c:axId val="511421440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506708736"/>
+        <c:axId val="511419904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,14 +1293,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506711424"/>
+        <c:crossAx val="511421440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506711424"/>
+        <c:axId val="511421440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1355,7 +1351,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506708736"/>
+        <c:crossAx val="511419904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,8 +1667,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="693315456"/>
-        <c:axId val="693230592"/>
+        <c:axId val="701486208"/>
+        <c:axId val="701479552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1944,11 +1940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507323520"/>
-        <c:axId val="507325440"/>
+        <c:axId val="638532992"/>
+        <c:axId val="701478016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507323520"/>
+        <c:axId val="638532992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,14 +1987,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507325440"/>
+        <c:crossAx val="701478016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="507325440"/>
+        <c:axId val="701478016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,12 +2045,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507323520"/>
+        <c:crossAx val="638532992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="693230592"/>
+        <c:axId val="701479552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,12 +2087,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="693315456"/>
+        <c:crossAx val="701486208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="693315456"/>
+        <c:axId val="701486208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2105,7 +2101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="693230592"/>
+        <c:crossAx val="701479552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2595,7 +2591,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2647,13 +2643,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2665,10 +2661,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -241,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -296,6 +300,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -448,7 +454,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -559,6 +565,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,7 +577,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -679,6 +688,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>8425176.0615711026</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8681764.3246558532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -721,7 +733,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -832,6 +844,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,7 +856,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -952,6 +967,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>7744750.54126132</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7776464.2456502719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,7 +1012,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1105,6 +1123,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,7 +1135,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1225,6 +1246,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-680425.52030978259</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-905300.07900558133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,11 +1270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="511419904"/>
-        <c:axId val="511421440"/>
+        <c:axId val="489141760"/>
+        <c:axId val="489143296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="511419904"/>
+        <c:axId val="489141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,14 +1317,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511421440"/>
+        <c:crossAx val="489143296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="511421440"/>
+        <c:axId val="489143296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1375,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="511419904"/>
+        <c:crossAx val="489141760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1542,7 +1566,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1653,6 +1677,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>284335.14001448749</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>256588.26308475045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1667,8 +1694,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="701486208"/>
-        <c:axId val="701479552"/>
+        <c:axId val="672901760"/>
+        <c:axId val="489205120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1693,7 +1720,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1804,6 +1831,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>45412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1843,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1924,6 +1954,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.1081088867187501</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.01785498046875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,11 +1973,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638532992"/>
-        <c:axId val="701478016"/>
+        <c:axId val="489202048"/>
+        <c:axId val="489203584"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="638532992"/>
+        <c:axId val="489202048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,14 +2020,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701478016"/>
+        <c:crossAx val="489203584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="701478016"/>
+        <c:axId val="489203584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,12 +2078,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638532992"/>
+        <c:crossAx val="489202048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="701479552"/>
+        <c:axId val="489205120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,12 +2120,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="701486208"/>
+        <c:crossAx val="672901760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="701486208"/>
+        <c:axId val="672901760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="701479552"/>
+        <c:crossAx val="489205120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2510,7 +2543,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AA39"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2540,10 +2573,12 @@
     <col min="21" max="21" width="10.375" style="1" customWidth="1"/>
     <col min="22" max="22" width="10.25" style="1" customWidth="1"/>
     <col min="23" max="23" width="10.125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="1"/>
+    <col min="24" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2582,7 +2617,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2591,7 +2626,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2604,7 +2639,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2643,13 +2678,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2661,23 +2696,34 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
       </c>
-      <c r="Z3" s="1">
-        <v>260275.18576464822</v>
+      <c r="Z3" s="29">
+        <f>Q4</f>
+        <v>260275.13658656832</v>
       </c>
       <c r="AA3" s="1">
         <f>-Z3</f>
-        <v>-260275.18576464822</v>
+        <v>-260275.13658656832</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>260275.13658656832</v>
+      </c>
+      <c r="AD3" s="1">
+        <f>-AC3</f>
+        <v>-260275.13658656832</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2742,15 +2788,26 @@
       <c r="Y4" s="19">
         <v>44925</v>
       </c>
-      <c r="Z4" s="1">
-        <v>3518640.0716485092</v>
+      <c r="Z4" s="29">
+        <f>Q5</f>
+        <v>3518640.0102128698</v>
       </c>
       <c r="AA4" s="1">
         <f>-Z4</f>
-        <v>-3518640.0716485092</v>
+        <v>-3518640.0102128698</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3518640.0102128698</v>
+      </c>
+      <c r="AD4" s="1">
+        <f>-AC4</f>
+        <v>-3518640.0102128698</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -2810,16 +2867,26 @@
         <v>-5.7885467613787454E-2</v>
       </c>
       <c r="W5" s="8">
-        <v>-5.4345791240333341E-2</v>
+        <v>-5.4345789230150321E-2</v>
       </c>
       <c r="Y5" s="19">
         <v>44925</v>
       </c>
       <c r="AA5" s="1">
-        <v>3560170.9704664377</v>
+        <v>3560170.8764541284</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>3101231.3499326068</v>
+      </c>
+      <c r="AD5" s="1">
+        <f>-AC5</f>
+        <v>-3101231.3499326068</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -2857,11 +2924,41 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M6" s="6"/>
+      <c r="P6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>3101231.3499326068</v>
+      </c>
+      <c r="R6" s="4">
+        <v>6880146.496732045</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5931030.5957214404</v>
+      </c>
+      <c r="T6" s="4">
+        <v>-949115.90101060458</v>
+      </c>
+      <c r="U6" s="4">
+        <v>657.86627675392538</v>
+      </c>
+      <c r="V6" s="8">
+        <v>-0.13794995520246828</v>
+      </c>
+      <c r="W6" s="8">
+        <v>-9.0099644036938709E-2</v>
+      </c>
       <c r="AA6" s="2">
-        <v>-5.4345791240333341E-2</v>
+        <v>-5.4345789230150321E-2</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>5931030.5957214404</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -2899,8 +2996,11 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="AD7" s="2">
+        <v>-9.0099644036938709E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -2939,7 +3039,7 @@
       </c>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -2978,7 +3078,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -3017,7 +3117,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -3056,7 +3156,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3095,7 +3195,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3134,7 +3234,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3173,7 +3273,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3212,7 +3312,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4129,6 +4229,47 @@
       <c r="L39" s="16">
         <v>657.86627675392538</v>
       </c>
+    </row>
+    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>45443</v>
+      </c>
+      <c r="B40" s="15">
+        <v>3.01785498046875</v>
+      </c>
+      <c r="C40" s="15">
+        <v>18.329999919999999</v>
+      </c>
+      <c r="D40" s="16">
+        <v>26.389717901760058</v>
+      </c>
+      <c r="E40" s="16">
+        <v>256588.26308475045</v>
+      </c>
+      <c r="F40" s="17">
+        <v>85023.39070146298</v>
+      </c>
+      <c r="G40" s="17">
+        <v>2576600.4097936265</v>
+      </c>
+      <c r="H40" s="17">
+        <v>7775806.3793735178</v>
+      </c>
+      <c r="I40" s="17">
+        <v>8681764.3246558532</v>
+      </c>
+      <c r="J40" s="17">
+        <v>7776464.2456502719</v>
+      </c>
+      <c r="K40" s="17">
+        <v>-905300.07900558133</v>
+      </c>
+      <c r="L40" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -245,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -300,7 +296,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -454,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -568,6 +563,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,7 +575,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -691,6 +689,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8681764.3246558532</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8956105.1812789217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -733,7 +734,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -847,6 +848,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +860,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -970,6 +974,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7776464.2456502719</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7842502.4338412527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1019,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1126,6 +1133,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1135,7 +1145,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1249,6 +1259,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-905300.07900558133</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1113602.747437669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,11 +1283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489141760"/>
-        <c:axId val="489143296"/>
+        <c:axId val="561667072"/>
+        <c:axId val="561697920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489141760"/>
+        <c:axId val="561667072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1317,14 +1330,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489143296"/>
+        <c:crossAx val="561697920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489143296"/>
+        <c:axId val="561697920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1375,7 +1388,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489141760"/>
+        <c:crossAx val="561667072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1566,7 +1579,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1680,6 +1693,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>256588.26308475045</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>274340.85662306892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,8 +1710,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="672901760"/>
-        <c:axId val="489205120"/>
+        <c:axId val="569620736"/>
+        <c:axId val="569619200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1720,7 +1736,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1834,6 +1850,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45443</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,7 +1862,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1957,6 +1976,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.01785498046875</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9370109863281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1973,11 +1995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="489202048"/>
-        <c:axId val="489203584"/>
+        <c:axId val="562782208"/>
+        <c:axId val="562783744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="489202048"/>
+        <c:axId val="562782208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2020,14 +2042,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489203584"/>
+        <c:crossAx val="562783744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="489203584"/>
+        <c:axId val="562783744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,12 +2100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="489202048"/>
+        <c:crossAx val="562782208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="489205120"/>
+        <c:axId val="569619200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,12 +2142,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672901760"/>
+        <c:crossAx val="569620736"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="672901760"/>
+        <c:axId val="569620736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="489205120"/>
+        <c:crossAx val="569619200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2626,7 +2648,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2678,13 +2700,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2696,15 +2718,15 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="28">
         <f>Q4</f>
         <v>260275.13658656832</v>
       </c>
@@ -2788,7 +2810,7 @@
       <c r="Y4" s="19">
         <v>44925</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="28">
         <f>Q5</f>
         <v>3518640.0102128698</v>
       </c>
@@ -4268,8 +4290,43 @@
         <v>657.86627675392538</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="28"/>
+    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>45471</v>
+      </c>
+      <c r="B41" s="15">
+        <v>2.9370109863281249</v>
+      </c>
+      <c r="C41" s="15">
+        <v>17.86000061</v>
+      </c>
+      <c r="D41" s="16">
+        <v>26.193870144829649</v>
+      </c>
+      <c r="E41" s="16">
+        <v>274340.85662306892</v>
+      </c>
+      <c r="F41" s="17">
+        <v>93408.181957825116</v>
+      </c>
+      <c r="G41" s="17">
+        <v>2670008.5917514516</v>
+      </c>
+      <c r="H41" s="17">
+        <v>7841844.5675644986</v>
+      </c>
+      <c r="I41" s="17">
+        <v>8956105.1812789217</v>
+      </c>
+      <c r="J41" s="17">
+        <v>7842502.4338412527</v>
+      </c>
+      <c r="K41" s="17">
+        <v>-1113602.747437669</v>
+      </c>
+      <c r="L41" s="16">
+        <v>657.86627675392538</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -566,6 +570,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,7 +582,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -692,6 +699,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8956105.1812789217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9224382.576519141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,7 +744,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -851,6 +861,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,7 +873,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -977,6 +990,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>7842502.4338412527</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8055315.8761913944</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1019,7 +1035,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1136,6 +1152,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1145,7 +1164,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1262,6 +1281,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-1113602.747437669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1169066.7003277466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1283,11 +1305,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561667072"/>
-        <c:axId val="561697920"/>
+        <c:axId val="493859584"/>
+        <c:axId val="493864448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="561667072"/>
+        <c:axId val="493859584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,14 +1352,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561697920"/>
+        <c:crossAx val="493864448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="561697920"/>
+        <c:axId val="493864448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,7 +1410,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="561667072"/>
+        <c:crossAx val="493859584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1579,7 +1601,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1696,6 +1718,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>274340.85662306892</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>268277.3952402196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,8 +1735,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="569620736"/>
-        <c:axId val="569619200"/>
+        <c:axId val="673439104"/>
+        <c:axId val="673436800"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1736,7 +1761,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1853,6 +1878,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,7 +1890,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -1979,6 +2007,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2.9370109863281249</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.916238037109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,11 +2026,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562782208"/>
-        <c:axId val="562783744"/>
+        <c:axId val="673432704"/>
+        <c:axId val="673435008"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562782208"/>
+        <c:axId val="673432704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,14 +2073,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562783744"/>
+        <c:crossAx val="673435008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562783744"/>
+        <c:axId val="673435008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,12 +2131,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562782208"/>
+        <c:crossAx val="673432704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="569619200"/>
+        <c:axId val="673436800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,12 +2173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="569620736"/>
+        <c:crossAx val="673439104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="569620736"/>
+        <c:axId val="673439104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,7 +2187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="569619200"/>
+        <c:crossAx val="673436800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2565,7 +2596,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD41"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2648,7 +2679,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2700,13 +2731,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2718,10 +2749,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4325,6 +4356,44 @@
         <v>-1113602.747437669</v>
       </c>
       <c r="L41" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>45504</v>
+      </c>
+      <c r="B42" s="15">
+        <v>2.916238037109375</v>
+      </c>
+      <c r="C42" s="15">
+        <v>17.709999079999999</v>
+      </c>
+      <c r="D42" s="16">
+        <v>25.951256745485065</v>
+      </c>
+      <c r="E42" s="16">
+        <v>268277.3952402196</v>
+      </c>
+      <c r="F42" s="17">
+        <v>91994.34059441209</v>
+      </c>
+      <c r="G42" s="17">
+        <v>2762002.9323458639</v>
+      </c>
+      <c r="H42" s="17">
+        <v>8054658.0099146403</v>
+      </c>
+      <c r="I42" s="17">
+        <v>9224382.576519141</v>
+      </c>
+      <c r="J42" s="17">
+        <v>8055315.8761913944</v>
+      </c>
+      <c r="K42" s="17">
+        <v>-1169066.7003277466</v>
+      </c>
+      <c r="L42" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -573,6 +573,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,7 +585,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -702,6 +705,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>9224382.576519141</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9329542.1142139155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,7 +750,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -864,6 +870,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +882,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -993,6 +1002,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8055315.8761913944</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7848159.3699060958</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1035,7 +1047,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1155,6 +1167,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1164,7 +1179,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1284,6 +1299,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-1169066.7003277466</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1481382.7443078198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1305,11 +1323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="493859584"/>
-        <c:axId val="493864448"/>
+        <c:axId val="639723776"/>
+        <c:axId val="643862528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="493859584"/>
+        <c:axId val="639723776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,14 +1370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493864448"/>
+        <c:crossAx val="643862528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="493864448"/>
+        <c:axId val="643862528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1428,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493859584"/>
+        <c:crossAx val="639723776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1601,7 +1619,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1721,6 +1739,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>268277.3952402196</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>105159.53769477447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,8 +1756,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="673439104"/>
-        <c:axId val="673436800"/>
+        <c:axId val="643942272"/>
+        <c:axId val="643940352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1761,7 +1782,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1881,6 +1902,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>45504</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1890,7 +1914,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2010,6 +2034,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2.916238037109375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.8031621093750001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,11 +2053,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="673432704"/>
-        <c:axId val="673435008"/>
+        <c:axId val="643919872"/>
+        <c:axId val="643922176"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="673432704"/>
+        <c:axId val="643919872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2073,14 +2100,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673435008"/>
+        <c:crossAx val="643922176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="673435008"/>
+        <c:axId val="643922176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,12 +2158,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673432704"/>
+        <c:crossAx val="643919872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="673436800"/>
+        <c:axId val="643940352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,12 +2200,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="673439104"/>
+        <c:crossAx val="643942272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="673439104"/>
+        <c:axId val="643942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673436800"/>
+        <c:crossAx val="643940352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2596,7 +2623,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4397,6 +4424,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>45534</v>
+      </c>
+      <c r="B43" s="15">
+        <v>2.8031621093750001</v>
+      </c>
+      <c r="C43" s="15">
+        <v>20.56999969</v>
+      </c>
+      <c r="D43" s="16">
+        <v>25.729715551443242</v>
+      </c>
+      <c r="E43" s="16">
+        <v>105159.53769477447</v>
+      </c>
+      <c r="F43" s="17">
+        <v>37514.611567798733</v>
+      </c>
+      <c r="G43" s="17">
+        <v>2799517.5439136624</v>
+      </c>
+      <c r="H43" s="17">
+        <v>7847501.5036293417</v>
+      </c>
+      <c r="I43" s="17">
+        <v>9329542.1142139155</v>
+      </c>
+      <c r="J43" s="17">
+        <v>7848159.3699060958</v>
+      </c>
+      <c r="K43" s="17">
+        <v>-1481382.7443078198</v>
+      </c>
+      <c r="L43" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -576,6 +572,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -585,7 +584,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -708,6 +707,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>9329542.1142139155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9330076.697563054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,7 +752,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -873,6 +875,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -882,7 +887,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1005,6 +1010,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>7848159.3699060958</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9948737.4124364611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1047,7 +1055,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1170,6 +1178,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1190,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1302,6 +1313,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-1481382.7443078198</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>618660.71487340704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1323,11 +1337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="639723776"/>
-        <c:axId val="643862528"/>
+        <c:axId val="473045248"/>
+        <c:axId val="473158784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="639723776"/>
+        <c:axId val="473045248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,14 +1384,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643862528"/>
+        <c:crossAx val="473158784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643862528"/>
+        <c:axId val="473158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1442,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="639723776"/>
+        <c:crossAx val="473045248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1619,7 +1633,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1742,6 +1756,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>105159.53769477447</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>534.58334913787519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,8 +1773,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="643942272"/>
-        <c:axId val="643940352"/>
+        <c:axId val="610351744"/>
+        <c:axId val="610350208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1782,7 +1799,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1905,6 +1922,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>45534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1914,7 +1934,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2037,6 +2057,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2.8031621093750001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5533068847656248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2053,11 +2076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="643919872"/>
-        <c:axId val="643922176"/>
+        <c:axId val="542417664"/>
+        <c:axId val="610289536"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="643919872"/>
+        <c:axId val="542417664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,14 +2123,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643922176"/>
+        <c:crossAx val="610289536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="643922176"/>
+        <c:axId val="610289536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,12 +2181,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643919872"/>
+        <c:crossAx val="542417664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="643940352"/>
+        <c:axId val="610350208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2223,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643942272"/>
+        <c:crossAx val="610351744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="643942272"/>
+        <c:axId val="610351744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2237,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="643940352"/>
+        <c:crossAx val="610350208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2623,7 +2646,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD43"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2706,7 +2729,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2758,13 +2781,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2776,10 +2799,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4459,6 +4482,44 @@
         <v>-1481382.7443078198</v>
       </c>
       <c r="L43" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>45565</v>
+      </c>
+      <c r="B44" s="15">
+        <v>3.5533068847656248</v>
+      </c>
+      <c r="C44" s="15">
+        <v>25.239999770000001</v>
+      </c>
+      <c r="D44" s="16">
+        <v>25.607882301175056</v>
+      </c>
+      <c r="E44" s="16">
+        <v>534.58334913787519</v>
+      </c>
+      <c r="F44" s="17">
+        <v>150.44671526398039</v>
+      </c>
+      <c r="G44" s="17">
+        <v>2799667.9906289265</v>
+      </c>
+      <c r="H44" s="17">
+        <v>9948079.546159707</v>
+      </c>
+      <c r="I44" s="17">
+        <v>9330076.697563054</v>
+      </c>
+      <c r="J44" s="17">
+        <v>9948737.4124364611</v>
+      </c>
+      <c r="K44" s="17">
+        <v>618660.71487340704</v>
+      </c>
+      <c r="L44" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -449,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -575,6 +575,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,7 +587,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -710,6 +713,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9330076.697563054</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9331801.6174881868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -752,7 +758,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -878,6 +884,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -887,7 +896,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1013,6 +1022,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9948737.4124364611</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9960354.1280550472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,7 +1067,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1181,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,7 +1205,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1316,6 +1331,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>618660.71487340704</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>628552.51056686044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,11 +1355,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="473045248"/>
-        <c:axId val="473158784"/>
+        <c:axId val="491592320"/>
+        <c:axId val="491598208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="473045248"/>
+        <c:axId val="491592320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1384,14 +1402,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473158784"/>
+        <c:crossAx val="491598208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="473158784"/>
+        <c:axId val="491598208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,7 +1460,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="473045248"/>
+        <c:crossAx val="491592320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,7 +1651,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1759,6 +1777,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>534.58334913787519</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1724.9199251330979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1773,8 +1794,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="610351744"/>
-        <c:axId val="610350208"/>
+        <c:axId val="491700992"/>
+        <c:axId val="491658240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1799,7 +1820,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1925,6 +1946,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>45565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,7 +1958,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2060,6 +2084,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3.5533068847656248</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5568400878906248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2076,11 +2103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="542417664"/>
-        <c:axId val="610289536"/>
+        <c:axId val="491653376"/>
+        <c:axId val="491655168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="542417664"/>
+        <c:axId val="491653376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,14 +2150,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610289536"/>
+        <c:crossAx val="491655168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="610289536"/>
+        <c:axId val="491655168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,12 +2208,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="542417664"/>
+        <c:crossAx val="491653376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="610350208"/>
+        <c:axId val="491658240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,12 +2250,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610351744"/>
+        <c:crossAx val="491700992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="610351744"/>
+        <c:axId val="491700992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2264,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="610350208"/>
+        <c:crossAx val="491658240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2646,7 +2673,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AD45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4523,6 +4550,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>45596</v>
+      </c>
+      <c r="B45" s="15">
+        <v>3.5568400878906248</v>
+      </c>
+      <c r="C45" s="15">
+        <v>24.940000529999999</v>
+      </c>
+      <c r="D45" s="16">
+        <v>25.600824703771881</v>
+      </c>
+      <c r="E45" s="16">
+        <v>1724.9199251330979</v>
+      </c>
+      <c r="F45" s="17">
+        <v>484.95852568847351</v>
+      </c>
+      <c r="G45" s="17">
+        <v>2800152.9491546149</v>
+      </c>
+      <c r="H45" s="17">
+        <v>9959696.2617782932</v>
+      </c>
+      <c r="I45" s="17">
+        <v>9331801.6174881868</v>
+      </c>
+      <c r="J45" s="17">
+        <v>9960354.1280550472</v>
+      </c>
+      <c r="K45" s="17">
+        <v>628552.51056686044</v>
+      </c>
+      <c r="L45" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -449,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -578,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -587,7 +590,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -716,6 +719,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9331801.6174881868</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9334814.2341408487</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,7 +764,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -887,6 +893,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,7 +905,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1025,6 +1034,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>9960354.1280550472</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9998925.8159113917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,7 +1079,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1196,6 +1208,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,7 +1220,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1334,6 +1349,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>628552.51056686044</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>664111.58177054301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,11 +1373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491592320"/>
-        <c:axId val="491598208"/>
+        <c:axId val="499429760"/>
+        <c:axId val="499445120"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491592320"/>
+        <c:axId val="499429760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,14 +1420,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491598208"/>
+        <c:crossAx val="499445120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491598208"/>
+        <c:axId val="499445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,7 +1478,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491592320"/>
+        <c:crossAx val="499429760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1651,7 +1669,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1780,6 +1798,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1724.9199251330979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3012.6166526625288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,8 +1815,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="491700992"/>
-        <c:axId val="491658240"/>
+        <c:axId val="531612416"/>
+        <c:axId val="531601280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1820,7 +1841,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1949,6 +1970,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>45596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,7 +1982,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2087,6 +2111,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3.5568400878906248</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.5695390625000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2103,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="491653376"/>
-        <c:axId val="491655168"/>
+        <c:axId val="507525760"/>
+        <c:axId val="531599744"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="491653376"/>
+        <c:axId val="507525760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2150,14 +2177,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491655168"/>
+        <c:crossAx val="531599744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="491655168"/>
+        <c:axId val="531599744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,12 +2235,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491653376"/>
+        <c:crossAx val="507525760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="491658240"/>
+        <c:axId val="531601280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,12 +2277,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="491700992"/>
+        <c:crossAx val="531612416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="491700992"/>
+        <c:axId val="531612416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491658240"/>
+        <c:crossAx val="531601280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2673,7 +2700,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD45"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4588,6 +4615,44 @@
         <v>657.86627675392538</v>
       </c>
     </row>
+    <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>45625</v>
+      </c>
+      <c r="B46" s="15">
+        <v>3.5695390625000001</v>
+      </c>
+      <c r="C46" s="15">
+        <v>24.719999309999999</v>
+      </c>
+      <c r="D46" s="16">
+        <v>25.593319274370291</v>
+      </c>
+      <c r="E46" s="16">
+        <v>3012.6166526625288</v>
+      </c>
+      <c r="F46" s="17">
+        <v>843.97918048068107</v>
+      </c>
+      <c r="G46" s="17">
+        <v>2800996.9283350958</v>
+      </c>
+      <c r="H46" s="17">
+        <v>9998267.9496346377</v>
+      </c>
+      <c r="I46" s="17">
+        <v>9334814.2341408487</v>
+      </c>
+      <c r="J46" s="17">
+        <v>9998925.8159113917</v>
+      </c>
+      <c r="K46" s="17">
+        <v>664111.58177054301</v>
+      </c>
+      <c r="L46" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -241,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -297,6 +301,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -449,7 +454,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -581,6 +586,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -590,7 +598,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -722,6 +730,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9334814.2341408487</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9337213.449360555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -764,7 +775,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -896,6 +907,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +919,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1037,6 +1051,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>9998925.8159113917</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10113154.970262304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1096,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1211,6 +1228,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,7 +1240,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1352,6 +1372,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>664111.58177054301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>775941.52090174891</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,11 +1396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="499429760"/>
-        <c:axId val="499445120"/>
+        <c:axId val="501716480"/>
+        <c:axId val="501718016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499429760"/>
+        <c:axId val="501716480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,14 +1443,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499445120"/>
+        <c:crossAx val="501718016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499445120"/>
+        <c:axId val="501718016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +1501,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499429760"/>
+        <c:crossAx val="501716480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1669,7 +1692,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1801,6 +1824,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3012.6166526625288</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2399.2152197068949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,8 +1841,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531612416"/>
-        <c:axId val="531601280"/>
+        <c:axId val="534405504"/>
+        <c:axId val="534403712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1841,7 +1867,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1973,6 +1999,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>45625</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1982,7 +2011,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2114,6 +2143,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3.5695390625000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6094641113281249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,11 +2162,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="507525760"/>
-        <c:axId val="531599744"/>
+        <c:axId val="534369792"/>
+        <c:axId val="534401792"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="507525760"/>
+        <c:axId val="534369792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,14 +2209,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531599744"/>
+        <c:crossAx val="534401792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="531599744"/>
+        <c:axId val="534401792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,12 +2267,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="507525760"/>
+        <c:crossAx val="534369792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="531601280"/>
+        <c:axId val="534403712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,12 +2309,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531612416"/>
+        <c:crossAx val="534405504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="531612416"/>
+        <c:axId val="534405504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2291,7 +2323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531601280"/>
+        <c:crossAx val="534403712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2700,7 +2732,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2735,7 +2767,7 @@
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2774,7 +2806,7 @@
       </c>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2783,7 +2815,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2796,7 +2828,7 @@
       <c r="L2" s="4"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>44316</v>
       </c>
@@ -2835,13 +2867,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2853,10 +2885,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -2879,8 +2911,18 @@
         <f>-AC3</f>
         <v>-260275.13658656832</v>
       </c>
+      <c r="AE3" s="19">
+        <v>44561</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>260275.13658656832</v>
+      </c>
+      <c r="AG3" s="1">
+        <f>-AF3</f>
+        <v>-260275.13658656832</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>44347</v>
       </c>
@@ -2963,8 +3005,18 @@
         <f>-AC4</f>
         <v>-3518640.0102128698</v>
       </c>
+      <c r="AE4" s="19">
+        <v>44925</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>3518640.0102128698</v>
+      </c>
+      <c r="AG4" s="1">
+        <f>-AF4</f>
+        <v>-3518640.0102128698</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>44377</v>
       </c>
@@ -3042,8 +3094,18 @@
         <f>-AC5</f>
         <v>-3101231.3499326068</v>
       </c>
+      <c r="AE5" s="19">
+        <v>45289</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>3101231.3499326068</v>
+      </c>
+      <c r="AG5" s="1">
+        <f>-AF5</f>
+        <v>-3101231.3499326068</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>44407</v>
       </c>
@@ -3114,8 +3176,18 @@
       <c r="AD6" s="1">
         <v>5931030.5957214404</v>
       </c>
+      <c r="AE6" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="AG6" s="1">
+        <f>-AF6</f>
+        <v>-2457066.9526285101</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>44439</v>
       </c>
@@ -3153,11 +3225,41 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M7" s="6"/>
+      <c r="P7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>2457066.9526285101</v>
+      </c>
+      <c r="R7" s="4">
+        <v>9337213.449360555</v>
+      </c>
+      <c r="S7" s="4">
+        <v>10113154.970262304</v>
+      </c>
+      <c r="T7" s="4">
+        <v>775941.52090174891</v>
+      </c>
+      <c r="U7" s="4">
+        <v>657.86627675392538</v>
+      </c>
+      <c r="V7" s="8">
+        <v>8.3102043785331703E-2</v>
+      </c>
+      <c r="W7" s="8">
+        <v>3.7251485634379744E-2</v>
+      </c>
       <c r="AD7" s="2">
         <v>-9.0099644036938709E-2</v>
       </c>
+      <c r="AE7" s="19">
+        <v>45657</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>10113154.970262304</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>44469</v>
       </c>
@@ -3195,8 +3297,11 @@
         <v>657.86627675392538</v>
       </c>
       <c r="M8" s="6"/>
+      <c r="AG8" s="2">
+        <v>3.7251485634379744E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>44498</v>
       </c>
@@ -3235,7 +3340,7 @@
       </c>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>44530</v>
       </c>
@@ -3274,7 +3379,7 @@
       </c>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>44561</v>
       </c>
@@ -3313,7 +3418,7 @@
       </c>
       <c r="M11" s="6"/>
     </row>
-    <row r="12" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>44589</v>
       </c>
@@ -3352,7 +3457,7 @@
       </c>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>44620</v>
       </c>
@@ -3391,7 +3496,7 @@
       </c>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>44651</v>
       </c>
@@ -3430,7 +3535,7 @@
       </c>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>44680</v>
       </c>
@@ -3469,7 +3574,7 @@
       </c>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>44712</v>
       </c>
@@ -4652,6 +4757,47 @@
       <c r="L46" s="16">
         <v>657.86627675392538</v>
       </c>
+    </row>
+    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>45657</v>
+      </c>
+      <c r="B47" s="15">
+        <v>3.6094641113281249</v>
+      </c>
+      <c r="C47" s="15">
+        <v>24.799999239999998</v>
+      </c>
+      <c r="D47" s="16">
+        <v>25.579355550139105</v>
+      </c>
+      <c r="E47" s="16">
+        <v>2399.2152197068949</v>
+      </c>
+      <c r="F47" s="17">
+        <v>664.70122591801828</v>
+      </c>
+      <c r="G47" s="17">
+        <v>2801661.6295610135</v>
+      </c>
+      <c r="H47" s="17">
+        <v>10112497.10398555</v>
+      </c>
+      <c r="I47" s="17">
+        <v>9337213.449360555</v>
+      </c>
+      <c r="J47" s="17">
+        <v>10113154.970262304</v>
+      </c>
+      <c r="K47" s="17">
+        <v>775941.52090174891</v>
+      </c>
+      <c r="L47" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -245,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -301,7 +301,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -720,19 +719,19 @@
                   <c:v>9224382.576519141</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9329542.1142139155</c:v>
+                  <c:v>9329542.1142252237</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9330076.697563054</c:v>
+                  <c:v>9330076.6975751501</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9331801.6174881868</c:v>
+                  <c:v>9331801.6175002828</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9334814.2341408487</c:v>
+                  <c:v>9334814.2341529448</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>9337213.449360555</c:v>
+                  <c:v>9337213.4493726511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,19 +1040,19 @@
                   <c:v>8055315.8761913944</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7848159.3699060958</c:v>
+                  <c:v>7848159.3699174048</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9948737.4124364611</c:v>
+                  <c:v>9948737.4124515858</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9960354.1280550472</c:v>
+                  <c:v>9960354.128070185</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9998925.8159113917</c:v>
+                  <c:v>9998925.8159265835</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10113154.970262304</c:v>
+                  <c:v>10113154.970277667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,19 +1361,19 @@
                   <c:v>-1169066.7003277466</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-1481382.7443078198</c:v>
+                  <c:v>-1481382.7443078188</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>618660.71487340704</c:v>
+                  <c:v>618660.7148764357</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>628552.51056686044</c:v>
+                  <c:v>628552.51056990214</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>664111.58177054301</c:v>
+                  <c:v>664111.58177363873</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>775941.52090174891</c:v>
+                  <c:v>775941.52090501599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1396,11 +1395,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="501716480"/>
-        <c:axId val="501718016"/>
+        <c:axId val="520280320"/>
+        <c:axId val="529958784"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="501716480"/>
+        <c:axId val="520280320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,14 +1442,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501718016"/>
+        <c:crossAx val="529958784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="501718016"/>
+        <c:axId val="529958784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1501,7 +1500,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501716480"/>
+        <c:crossAx val="520280320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,10 +1813,10 @@
                   <c:v>268277.3952402196</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105159.53769477447</c:v>
+                  <c:v>105159.5377060835</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>534.58334913787519</c:v>
+                  <c:v>534.58334992613857</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1724.9199251330979</c:v>
@@ -1841,8 +1840,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="534405504"/>
-        <c:axId val="534403712"/>
+        <c:axId val="590761344"/>
+        <c:axId val="590753152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2162,11 +2161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="534369792"/>
-        <c:axId val="534401792"/>
+        <c:axId val="530041472"/>
+        <c:axId val="550154240"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="534369792"/>
+        <c:axId val="530041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,14 +2208,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534401792"/>
+        <c:crossAx val="550154240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="534401792"/>
+        <c:axId val="550154240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,12 +2266,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534369792"/>
+        <c:crossAx val="530041472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="534403712"/>
+        <c:axId val="590753152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,12 +2308,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="534405504"/>
+        <c:crossAx val="590761344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="534405504"/>
+        <c:axId val="590761344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2323,7 +2322,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534403712"/>
+        <c:crossAx val="590753152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2732,7 +2731,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3229,22 +3228,22 @@
         <v>45657</v>
       </c>
       <c r="Q7" s="9">
-        <v>2457066.9526285101</v>
+        <v>2457066.9526406061</v>
       </c>
       <c r="R7" s="4">
-        <v>9337213.449360555</v>
+        <v>9337213.4493726511</v>
       </c>
       <c r="S7" s="4">
-        <v>10113154.970262304</v>
+        <v>10113154.970277667</v>
       </c>
       <c r="T7" s="4">
-        <v>775941.52090174891</v>
+        <v>775941.52090501599</v>
       </c>
       <c r="U7" s="4">
         <v>657.86627675392538</v>
       </c>
       <c r="V7" s="8">
-        <v>8.3102043785331703E-2</v>
+        <v>8.310204378557394E-2</v>
       </c>
       <c r="W7" s="8">
         <v>3.7251485634379744E-2</v>
@@ -4617,28 +4616,28 @@
         <v>20.56999969</v>
       </c>
       <c r="D43" s="16">
-        <v>25.729715551443242</v>
+        <v>25.729715551720684</v>
       </c>
       <c r="E43" s="16">
-        <v>105159.53769477447</v>
+        <v>105159.5377060835</v>
       </c>
       <c r="F43" s="17">
-        <v>37514.611567798733</v>
+        <v>37514.611571833113</v>
       </c>
       <c r="G43" s="17">
-        <v>2799517.5439136624</v>
+        <v>2799517.5439176969</v>
       </c>
       <c r="H43" s="17">
-        <v>7847501.5036293417</v>
+        <v>7847501.5036406508</v>
       </c>
       <c r="I43" s="17">
-        <v>9329542.1142139155</v>
+        <v>9329542.1142252237</v>
       </c>
       <c r="J43" s="17">
-        <v>7848159.3699060958</v>
+        <v>7848159.3699174048</v>
       </c>
       <c r="K43" s="17">
-        <v>-1481382.7443078198</v>
+        <v>-1481382.7443078188</v>
       </c>
       <c r="L43" s="16">
         <v>657.86627675392538</v>
@@ -4655,28 +4654,28 @@
         <v>25.239999770000001</v>
       </c>
       <c r="D44" s="16">
-        <v>25.607882301175056</v>
+        <v>25.607882301446285</v>
       </c>
       <c r="E44" s="16">
-        <v>534.58334913787519</v>
+        <v>534.58334992613857</v>
       </c>
       <c r="F44" s="17">
-        <v>150.44671526398039</v>
+        <v>150.44671548581977</v>
       </c>
       <c r="G44" s="17">
-        <v>2799667.9906289265</v>
+        <v>2799667.9906331827</v>
       </c>
       <c r="H44" s="17">
-        <v>9948079.546159707</v>
+        <v>9948079.5461748317</v>
       </c>
       <c r="I44" s="17">
-        <v>9330076.697563054</v>
+        <v>9330076.6975751501</v>
       </c>
       <c r="J44" s="17">
-        <v>9948737.4124364611</v>
+        <v>9948737.4124515858</v>
       </c>
       <c r="K44" s="17">
-        <v>618660.71487340704</v>
+        <v>618660.7148764357</v>
       </c>
       <c r="L44" s="16">
         <v>657.86627675392538</v>
@@ -4702,19 +4701,19 @@
         <v>484.95852568847351</v>
       </c>
       <c r="G45" s="17">
-        <v>2800152.9491546149</v>
+        <v>2800152.9491588711</v>
       </c>
       <c r="H45" s="17">
-        <v>9959696.2617782932</v>
+        <v>9959696.2617934309</v>
       </c>
       <c r="I45" s="17">
-        <v>9331801.6174881868</v>
+        <v>9331801.6175002828</v>
       </c>
       <c r="J45" s="17">
-        <v>9960354.1280550472</v>
+        <v>9960354.128070185</v>
       </c>
       <c r="K45" s="17">
-        <v>628552.51056686044</v>
+        <v>628552.51056990214</v>
       </c>
       <c r="L45" s="16">
         <v>657.86627675392538</v>
@@ -4740,19 +4739,19 @@
         <v>843.97918048068107</v>
       </c>
       <c r="G46" s="17">
-        <v>2800996.9283350958</v>
+        <v>2800996.9283393519</v>
       </c>
       <c r="H46" s="17">
-        <v>9998267.9496346377</v>
+        <v>9998267.9496498294</v>
       </c>
       <c r="I46" s="17">
-        <v>9334814.2341408487</v>
+        <v>9334814.2341529448</v>
       </c>
       <c r="J46" s="17">
-        <v>9998925.8159113917</v>
+        <v>9998925.8159265835</v>
       </c>
       <c r="K46" s="17">
-        <v>664111.58177054301</v>
+        <v>664111.58177363873</v>
       </c>
       <c r="L46" s="16">
         <v>657.86627675392538</v>
@@ -4778,26 +4777,23 @@
         <v>664.70122591801828</v>
       </c>
       <c r="G47" s="17">
-        <v>2801661.6295610135</v>
+        <v>2801661.6295652697</v>
       </c>
       <c r="H47" s="17">
-        <v>10112497.10398555</v>
+        <v>10112497.104000913</v>
       </c>
       <c r="I47" s="17">
-        <v>9337213.449360555</v>
+        <v>9337213.4493726511</v>
       </c>
       <c r="J47" s="17">
-        <v>10113154.970262304</v>
+        <v>10113154.970277667</v>
       </c>
       <c r="K47" s="17">
-        <v>775941.52090174891</v>
+        <v>775941.52090501599</v>
       </c>
       <c r="L47" s="16">
         <v>657.86627675392538</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -588,6 +584,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,7 +596,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -732,6 +731,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>9337213.4493726511</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9342349.5348931719</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +776,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -909,6 +911,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +923,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1053,6 +1058,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>10113154.970277667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9968651.1344057918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1095,7 +1103,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1230,6 +1238,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,7 +1250,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1374,6 +1385,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>775941.52090501599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>626301.5995126199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1395,11 +1409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520280320"/>
-        <c:axId val="529958784"/>
+        <c:axId val="575752832"/>
+        <c:axId val="591487360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="520280320"/>
+        <c:axId val="575752832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1442,14 +1456,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="529958784"/>
+        <c:crossAx val="591487360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="529958784"/>
+        <c:axId val="591487360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1500,7 +1514,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520280320"/>
+        <c:crossAx val="575752832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1691,7 +1705,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1826,6 +1840,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2399.2152197068949</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5136.0855205209327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,8 +1857,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="590761344"/>
-        <c:axId val="590753152"/>
+        <c:axId val="594801024"/>
+        <c:axId val="594761984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1866,7 +1883,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2001,6 +2018,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45657</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,7 +2030,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2145,6 +2165,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3.6094641113281249</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5560529785156252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2161,11 +2184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="530041472"/>
-        <c:axId val="550154240"/>
+        <c:axId val="594758272"/>
+        <c:axId val="594760448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="530041472"/>
+        <c:axId val="594758272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2208,14 +2231,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="550154240"/>
+        <c:crossAx val="594760448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="550154240"/>
+        <c:axId val="594760448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,12 +2289,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="530041472"/>
+        <c:crossAx val="594758272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590753152"/>
+        <c:axId val="594761984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,12 +2331,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="590761344"/>
+        <c:crossAx val="594801024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="590761344"/>
+        <c:axId val="594801024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590753152"/>
+        <c:crossAx val="594761984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2731,7 +2754,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG47"/>
+  <dimension ref="A1:AG48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2814,7 +2837,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2866,13 +2889,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2884,10 +2907,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4792,6 +4815,44 @@
         <v>775941.52090501599</v>
       </c>
       <c r="L47" s="16">
+        <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>45684</v>
+      </c>
+      <c r="B48" s="15">
+        <v>3.5560529785156252</v>
+      </c>
+      <c r="C48" s="15">
+        <v>24.409999849999998</v>
+      </c>
+      <c r="D48" s="16">
+        <v>25.550295783221614</v>
+      </c>
+      <c r="E48" s="16">
+        <v>5136.0855205209327</v>
+      </c>
+      <c r="F48" s="17">
+        <v>1444.3219917001484</v>
+      </c>
+      <c r="G48" s="17">
+        <v>2803105.9515569699</v>
+      </c>
+      <c r="H48" s="17">
+        <v>9967993.2681290377</v>
+      </c>
+      <c r="I48" s="17">
+        <v>9342349.5348931719</v>
+      </c>
+      <c r="J48" s="17">
+        <v>9968651.1344057918</v>
+      </c>
+      <c r="K48" s="17">
+        <v>626301.5995126199</v>
+      </c>
+      <c r="L48" s="16">
         <v>657.86627675392538</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -587,6 +591,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,7 +603,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -733,6 +740,9 @@
                   <c:v>9337213.4493726511</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>9342349.5348931719</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>9342349.5348931719</c:v>
                 </c:pt>
               </c:numCache>
@@ -776,7 +786,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -914,6 +924,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +936,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1061,6 +1074,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>9968651.1344057918</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10616462.880592203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1103,7 +1119,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1241,6 +1257,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1250,7 +1269,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1388,6 +1407,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>626301.5995126199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1274113.3456990309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,11 +1431,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="575752832"/>
-        <c:axId val="591487360"/>
+        <c:axId val="671251072"/>
+        <c:axId val="671286016"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="575752832"/>
+        <c:axId val="671251072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,14 +1478,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="591487360"/>
+        <c:crossAx val="671286016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="591487360"/>
+        <c:axId val="671286016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,7 +1536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575752832"/>
+        <c:crossAx val="671251072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1705,7 +1727,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1843,6 +1865,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>5136.0855205209327</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1054.5417431386754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1857,8 +1882,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="594801024"/>
-        <c:axId val="594761984"/>
+        <c:axId val="671325568"/>
+        <c:axId val="671324032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1883,7 +1908,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2021,6 +2046,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>45684</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,7 +2058,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2168,6 +2196,9 @@
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>3.5560529785156252</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.7871579589843751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,11 +2215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="594758272"/>
-        <c:axId val="594760448"/>
+        <c:axId val="671310592"/>
+        <c:axId val="671312512"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="594758272"/>
+        <c:axId val="671310592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,14 +2262,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594760448"/>
+        <c:crossAx val="671312512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="594760448"/>
+        <c:axId val="671312512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,12 +2320,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594758272"/>
+        <c:crossAx val="671310592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="594761984"/>
+        <c:axId val="671324032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,12 +2362,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="594801024"/>
+        <c:crossAx val="671325568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="594801024"/>
+        <c:axId val="671325568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="594761984"/>
+        <c:crossAx val="671324032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2754,7 +2785,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG48"/>
+  <dimension ref="A1:AG49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2837,7 +2868,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2889,13 +2920,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2907,10 +2938,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4854,6 +4885,44 @@
       </c>
       <c r="L48" s="16">
         <v>657.86627675392538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>45716</v>
+      </c>
+      <c r="B49" s="15">
+        <v>3.7871579589843751</v>
+      </c>
+      <c r="C49" s="15">
+        <v>26.079999923706055</v>
+      </c>
+      <c r="D49" s="16">
+        <v>25.563306017026612</v>
+      </c>
+      <c r="E49" s="16">
+        <v>-1054.5417431386754</v>
+      </c>
+      <c r="F49" s="17">
+        <v>-278.45200927966528</v>
+      </c>
+      <c r="G49" s="17">
+        <v>2802827.4995476902</v>
+      </c>
+      <c r="H49" s="17">
+        <v>10614750.47257231</v>
+      </c>
+      <c r="I49" s="17">
+        <v>9342349.5348931719</v>
+      </c>
+      <c r="J49" s="17">
+        <v>10616462.880592203</v>
+      </c>
+      <c r="K49" s="17">
+        <v>1274113.3456990309</v>
+      </c>
+      <c r="L49" s="16">
+        <v>1712.4080198926008</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -594,6 +594,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,7 +606,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -743,6 +746,9 @@
                   <c:v>9342349.5348931719</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>9342349.5348931719</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>9342349.5348931719</c:v>
                 </c:pt>
               </c:numCache>
@@ -786,7 +792,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -927,6 +933,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -936,7 +945,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1077,6 +1086,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>10616462.880592203</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10412243.093617713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1131,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1260,6 +1272,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1269,7 +1284,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1410,6 +1425,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1274113.3456990309</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1069893.5587245412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,11 +1449,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671251072"/>
-        <c:axId val="671286016"/>
+        <c:axId val="510219008"/>
+        <c:axId val="510227968"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="671251072"/>
+        <c:axId val="510219008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,14 +1496,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671286016"/>
+        <c:crossAx val="510227968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="671286016"/>
+        <c:axId val="510227968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1536,7 +1554,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671251072"/>
+        <c:crossAx val="510219008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1727,7 +1745,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1868,6 +1886,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1054.5417431386754</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-11.050952879581011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,8 +1903,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="671325568"/>
-        <c:axId val="671324032"/>
+        <c:axId val="784707968"/>
+        <c:axId val="784705408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1908,7 +1929,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2049,6 +2070,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>45716</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2058,7 +2082,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2199,6 +2223,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3.7871579589843751</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.7142958984374999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="671310592"/>
-        <c:axId val="671312512"/>
+        <c:axId val="782952704"/>
+        <c:axId val="784703872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="671310592"/>
+        <c:axId val="782952704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,14 +2289,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671312512"/>
+        <c:crossAx val="784703872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="671312512"/>
+        <c:axId val="784703872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,12 +2347,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671310592"/>
+        <c:crossAx val="782952704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="671324032"/>
+        <c:axId val="784705408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,12 +2389,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671325568"/>
+        <c:crossAx val="784707968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="671325568"/>
+        <c:axId val="784707968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2376,7 +2403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="671324032"/>
+        <c:crossAx val="784705408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2785,7 +2812,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG49"/>
+  <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4925,6 +4952,44 @@
         <v>1712.4080198926008</v>
       </c>
     </row>
+    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>45747</v>
+      </c>
+      <c r="B50" s="15">
+        <v>3.7142958984374999</v>
+      </c>
+      <c r="C50" s="15">
+        <v>25.629999160000001</v>
+      </c>
+      <c r="D50" s="16">
+        <v>25.577105780548813</v>
+      </c>
+      <c r="E50" s="16">
+        <v>-11.050952879581011</v>
+      </c>
+      <c r="F50" s="17">
+        <v>-2.9752483867076496</v>
+      </c>
+      <c r="G50" s="17">
+        <v>2802824.5242993035</v>
+      </c>
+      <c r="H50" s="17">
+        <v>10410519.63464494</v>
+      </c>
+      <c r="I50" s="17">
+        <v>9342349.5348931719</v>
+      </c>
+      <c r="J50" s="17">
+        <v>10412243.093617713</v>
+      </c>
+      <c r="K50" s="17">
+        <v>1069893.5587245412</v>
+      </c>
+      <c r="L50" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -597,6 +593,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -606,7 +605,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -750,6 +749,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9342349.5348931719</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9351588.6696039252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +794,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -936,6 +938,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,7 +950,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1089,6 +1094,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>10412243.093617713</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9782547.7221212052</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1131,7 +1139,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1275,6 +1283,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,7 +1295,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1428,6 +1439,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1069893.5587245412</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>430959.05251727998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1449,11 +1463,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="510219008"/>
-        <c:axId val="510227968"/>
+        <c:axId val="75365376"/>
+        <c:axId val="105223296"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="510219008"/>
+        <c:axId val="75365376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,14 +1510,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510227968"/>
+        <c:crossAx val="105223296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="510227968"/>
+        <c:axId val="105223296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,7 +1568,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510219008"/>
+        <c:crossAx val="75365376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,7 +1759,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1889,6 +1903,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-11.050952879581011</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9239.1347107527126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,8 +1920,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="784707968"/>
-        <c:axId val="784705408"/>
+        <c:axId val="600121728"/>
+        <c:axId val="599931904"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1929,7 +1946,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2073,6 +2090,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,7 +2102,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2226,6 +2246,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.7142958984374999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.4863349609375001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2242,11 +2265,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="782952704"/>
-        <c:axId val="784703872"/>
+        <c:axId val="599202048"/>
+        <c:axId val="599929600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="782952704"/>
+        <c:axId val="599202048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2289,14 +2312,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784703872"/>
+        <c:crossAx val="599929600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="784703872"/>
+        <c:axId val="599929600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,12 +2370,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="782952704"/>
+        <c:crossAx val="599202048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="784705408"/>
+        <c:axId val="599931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,12 +2412,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="784707968"/>
+        <c:crossAx val="600121728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="784707968"/>
+        <c:axId val="600121728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2403,7 +2426,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="784705408"/>
+        <c:crossAx val="599931904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2812,7 +2835,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG50"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2895,7 +2918,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2947,13 +2970,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -2965,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -4987,6 +5010,44 @@
         <v>1069893.5587245412</v>
       </c>
       <c r="L50" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>45777</v>
+      </c>
+      <c r="B51" s="15">
+        <v>3.4863349609375001</v>
+      </c>
+      <c r="C51" s="15">
+        <v>24.010000229999999</v>
+      </c>
+      <c r="D51" s="16">
+        <v>25.539386200172402</v>
+      </c>
+      <c r="E51" s="16">
+        <v>9239.1347107527126</v>
+      </c>
+      <c r="F51" s="17">
+        <v>2650.0995498918569</v>
+      </c>
+      <c r="G51" s="17">
+        <v>2805474.6238491954</v>
+      </c>
+      <c r="H51" s="17">
+        <v>9780824.2631484326</v>
+      </c>
+      <c r="I51" s="17">
+        <v>9351588.6696039252</v>
+      </c>
+      <c r="J51" s="17">
+        <v>9782547.7221212052</v>
+      </c>
+      <c r="K51" s="17">
+        <v>430959.05251727998</v>
+      </c>
+      <c r="L51" s="16">
         <v>1723.4589727721818</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -449,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -596,6 +596,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,7 +608,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -752,6 +755,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9351588.6696039252</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9370815.7511015385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,7 +800,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -941,6 +947,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,7 +959,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1097,6 +1106,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9782547.7221212052</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9932970.468242798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,7 +1151,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1286,6 +1298,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1310,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1442,6 +1457,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>430959.05251727998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>562154.71714125946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,11 +1481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="75365376"/>
-        <c:axId val="105223296"/>
+        <c:axId val="637113472"/>
+        <c:axId val="637115392"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="75365376"/>
+        <c:axId val="637113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1510,14 +1528,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105223296"/>
+        <c:crossAx val="637115392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="105223296"/>
+        <c:axId val="637115392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1586,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75365376"/>
+        <c:crossAx val="637113472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1759,7 +1777,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1906,6 +1924,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>9239.1347107527126</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19227.081497612831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1920,8 +1941,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600121728"/>
-        <c:axId val="599931904"/>
+        <c:axId val="702929152"/>
+        <c:axId val="702926208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1946,7 +1967,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2093,6 +2114,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>45777</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,7 +2126,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2249,6 +2273,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.4863349609375001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5330991210937501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,11 +2292,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="599202048"/>
-        <c:axId val="599929600"/>
+        <c:axId val="702918656"/>
+        <c:axId val="702921344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="599202048"/>
+        <c:axId val="702918656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,14 +2339,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599929600"/>
+        <c:crossAx val="702921344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="599929600"/>
+        <c:axId val="702921344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,12 +2397,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="599202048"/>
+        <c:crossAx val="702918656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="599931904"/>
+        <c:axId val="702926208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2412,12 +2439,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="600121728"/>
+        <c:crossAx val="702929152"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="600121728"/>
+        <c:axId val="702929152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,7 +2453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="599931904"/>
+        <c:crossAx val="702926208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2835,7 +2862,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG51"/>
+  <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5051,6 +5078,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>45807</v>
+      </c>
+      <c r="B52" s="15">
+        <v>3.5330991210937501</v>
+      </c>
+      <c r="C52" s="15">
+        <v>23.299999239999998</v>
+      </c>
+      <c r="D52" s="16">
+        <v>25.506266578519043</v>
+      </c>
+      <c r="E52" s="16">
+        <v>19227.081497612831</v>
+      </c>
+      <c r="F52" s="17">
+        <v>5441.9875691629777</v>
+      </c>
+      <c r="G52" s="17">
+        <v>2810916.6114183585</v>
+      </c>
+      <c r="H52" s="17">
+        <v>9931247.0092700254</v>
+      </c>
+      <c r="I52" s="17">
+        <v>9370815.7511015385</v>
+      </c>
+      <c r="J52" s="17">
+        <v>9932970.468242798</v>
+      </c>
+      <c r="K52" s="17">
+        <v>562154.71714125946</v>
+      </c>
+      <c r="L52" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -599,6 +603,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -608,7 +615,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -758,6 +765,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>9370815.7511015385</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9376218.8075327799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,7 +810,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -950,6 +960,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -959,7 +972,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1109,6 +1122,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>9932970.468242798</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10265389.633969223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1151,7 +1167,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1301,6 +1317,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1329,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1460,6 +1479,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>562154.71714125946</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>889170.82643644325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1481,11 +1503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="637113472"/>
-        <c:axId val="637115392"/>
+        <c:axId val="536189952"/>
+        <c:axId val="536204416"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="637113472"/>
+        <c:axId val="536189952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,14 +1550,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637115392"/>
+        <c:crossAx val="536204416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="637115392"/>
+        <c:axId val="536204416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,7 +1608,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="637113472"/>
+        <c:crossAx val="536189952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1777,7 +1799,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1927,6 +1949,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>19227.081497612831</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5403.0564312410688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1941,8 +1966,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="702929152"/>
-        <c:axId val="702926208"/>
+        <c:axId val="564668672"/>
+        <c:axId val="563372032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1967,7 +1992,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2117,6 +2142,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>45807</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45838</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,7 +2154,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2276,6 +2304,9 @@
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>3.5330991210937501</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.6494370117187498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2292,11 +2323,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="702918656"/>
-        <c:axId val="702921344"/>
+        <c:axId val="562836992"/>
+        <c:axId val="562838912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="702918656"/>
+        <c:axId val="562836992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,14 +2370,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702921344"/>
+        <c:crossAx val="562838912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="702921344"/>
+        <c:axId val="562838912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,12 +2428,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702918656"/>
+        <c:crossAx val="562836992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="702926208"/>
+        <c:axId val="563372032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,12 +2470,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="702929152"/>
+        <c:crossAx val="564668672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="702929152"/>
+        <c:axId val="564668672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2453,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="702926208"/>
+        <c:crossAx val="563372032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2862,7 +2893,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG52"/>
+  <dimension ref="A1:AG53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2945,7 +2976,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -2997,13 +3028,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -3015,10 +3046,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -5113,6 +5144,44 @@
         <v>562154.71714125946</v>
       </c>
       <c r="L52" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>45838</v>
+      </c>
+      <c r="B53" s="15">
+        <v>3.6494370117187498</v>
+      </c>
+      <c r="C53" s="15">
+        <v>24.299999239999998</v>
+      </c>
+      <c r="D53" s="16">
+        <v>25.46955573186175</v>
+      </c>
+      <c r="E53" s="16">
+        <v>5403.0564312410688</v>
+      </c>
+      <c r="F53" s="17">
+        <v>1480.5177932627009</v>
+      </c>
+      <c r="G53" s="17">
+        <v>2812397.1292116214</v>
+      </c>
+      <c r="H53" s="17">
+        <v>10263666.174996451</v>
+      </c>
+      <c r="I53" s="17">
+        <v>9376218.8075327799</v>
+      </c>
+      <c r="J53" s="17">
+        <v>10265389.633969223</v>
+      </c>
+      <c r="K53" s="17">
+        <v>889170.82643644325</v>
+      </c>
+      <c r="L53" s="16">
         <v>1723.4589727721818</v>
       </c>
     </row>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -606,6 +606,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -615,7 +618,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -768,6 +771,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>9376218.8075327799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +816,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -963,6 +969,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +981,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1125,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>10265389.633969223</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10685462.282316651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1167,7 +1179,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1320,6 +1332,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1329,7 +1344,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1482,6 +1497,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>889170.82643644325</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1309070.0945965312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,11 +1521,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536189952"/>
-        <c:axId val="536204416"/>
+        <c:axId val="464569472"/>
+        <c:axId val="464571776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536189952"/>
+        <c:axId val="464569472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,14 +1568,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536204416"/>
+        <c:crossAx val="464571776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="536204416"/>
+        <c:axId val="464571776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1608,7 +1626,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536189952"/>
+        <c:crossAx val="464569472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1799,7 +1817,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1952,6 +1970,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5403.0564312410688</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>173.38018734075604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1966,8 +1987,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="564668672"/>
-        <c:axId val="563372032"/>
+        <c:axId val="464702464"/>
+        <c:axId val="464700928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1992,7 +2013,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2145,6 +2166,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>45838</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45869</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,7 +2178,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2307,6 +2331,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>3.6494370117187498</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7987399902343748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,11 +2350,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="562836992"/>
-        <c:axId val="562838912"/>
+        <c:axId val="464691968"/>
+        <c:axId val="464693504"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="562836992"/>
+        <c:axId val="464691968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2370,14 +2397,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562838912"/>
+        <c:crossAx val="464693504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562838912"/>
+        <c:axId val="464693504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,12 +2455,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562836992"/>
+        <c:crossAx val="464691968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563372032"/>
+        <c:axId val="464700928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,12 +2497,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564668672"/>
+        <c:crossAx val="464702464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="564668672"/>
+        <c:axId val="464702464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,7 +2511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="563372032"/>
+        <c:crossAx val="464700928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2893,7 +2920,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG53"/>
+  <dimension ref="A1:AG54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5185,6 +5212,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>45869</v>
+      </c>
+      <c r="B54" s="15">
+        <v>3.7987399902343748</v>
+      </c>
+      <c r="C54" s="15">
+        <v>25.25</v>
+      </c>
+      <c r="D54" s="16">
+        <v>25.459508277435798</v>
+      </c>
+      <c r="E54" s="16">
+        <v>173.38018734075604</v>
+      </c>
+      <c r="F54" s="17">
+        <v>45.641498967150639</v>
+      </c>
+      <c r="G54" s="17">
+        <v>2812442.7707105884</v>
+      </c>
+      <c r="H54" s="17">
+        <v>10683738.823343879</v>
+      </c>
+      <c r="I54" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J54" s="17">
+        <v>10685462.282316651</v>
+      </c>
+      <c r="K54" s="17">
+        <v>1309070.0945965312</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1723.4589727721818</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -609,6 +609,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,7 +621,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -773,6 +776,9 @@
                   <c:v>9376218.8075327799</c:v>
                 </c:pt>
                 <c:pt idx="51">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -816,7 +822,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -972,6 +978,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -981,7 +990,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1137,6 +1146,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>10685462.282316651</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12764433.573730325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1179,7 +1191,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1335,6 +1347,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,7 +1359,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1500,6 +1515,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1309070.0945965312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3388041.3860102054</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,11 +1539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464569472"/>
-        <c:axId val="464571776"/>
+        <c:axId val="424318080"/>
+        <c:axId val="424319616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464569472"/>
+        <c:axId val="424318080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,14 +1586,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464571776"/>
+        <c:crossAx val="424319616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464571776"/>
+        <c:axId val="424319616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1626,7 +1644,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464569472"/>
+        <c:crossAx val="424318080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1817,7 +1835,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1973,6 +1991,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>173.38018734075604</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-80971.164290520144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1987,8 +2008,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="464702464"/>
-        <c:axId val="464700928"/>
+        <c:axId val="500312704"/>
+        <c:axId val="499849472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2013,7 +2034,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2169,6 +2190,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45869</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45898</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,7 +2202,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2334,6 +2358,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>3.7987399902343748</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.5379448242187497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2350,11 +2377,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="464691968"/>
-        <c:axId val="464693504"/>
+        <c:axId val="424336384"/>
+        <c:axId val="499847552"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="464691968"/>
+        <c:axId val="424336384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,14 +2424,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464693504"/>
+        <c:crossAx val="499847552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="464693504"/>
+        <c:axId val="499847552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,12 +2482,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464691968"/>
+        <c:crossAx val="424336384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="464700928"/>
+        <c:axId val="499849472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,12 +2524,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464702464"/>
+        <c:crossAx val="500312704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="464702464"/>
+        <c:axId val="500312704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464700928"/>
+        <c:crossAx val="499849472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2920,7 +2947,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5250,6 +5277,44 @@
         <v>1723.4589727721818</v>
       </c>
     </row>
+    <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>45898</v>
+      </c>
+      <c r="B55" s="15">
+        <v>4.5379448242187497</v>
+      </c>
+      <c r="C55" s="15">
+        <v>30.020000459999999</v>
+      </c>
+      <c r="D55" s="16">
+        <v>25.492415128467428</v>
+      </c>
+      <c r="E55" s="16">
+        <v>-80971.164290520144</v>
+      </c>
+      <c r="F55" s="17">
+        <v>-17843.135478065251</v>
+      </c>
+      <c r="G55" s="17">
+        <v>2794599.6352325231</v>
+      </c>
+      <c r="H55" s="17">
+        <v>12681738.950467033</v>
+      </c>
+      <c r="I55" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J55" s="17">
+        <v>12764433.573730325</v>
+      </c>
+      <c r="K55" s="17">
+        <v>3388041.3860102054</v>
+      </c>
+      <c r="L55" s="16">
+        <v>82694.62326329232</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -453,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -612,6 +612,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,7 +624,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -779,6 +782,9 @@
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -822,7 +828,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -981,6 +987,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -990,7 +999,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1149,6 +1158,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>12764433.573730325</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14218059.311143037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,7 +1203,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1350,6 +1362,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1359,7 +1374,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1518,6 +1533,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>3388041.3860102054</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4841667.123422917</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,11 +1557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424318080"/>
-        <c:axId val="424319616"/>
+        <c:axId val="270234752"/>
+        <c:axId val="270236672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424318080"/>
+        <c:axId val="270234752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,14 +1604,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424319616"/>
+        <c:crossAx val="270236672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="424319616"/>
+        <c:axId val="270236672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1662,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424318080"/>
+        <c:crossAx val="270234752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1835,7 +1853,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1994,6 +2012,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>-80971.164290520144</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-207876.55105672523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2008,8 +2029,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="500312704"/>
-        <c:axId val="499849472"/>
+        <c:axId val="270268288"/>
+        <c:axId val="270266752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2034,7 +2055,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2193,6 +2214,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,7 +2226,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="53"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2361,6 +2385,9 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4.5379448242187497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0581000976562498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,11 +2404,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="424336384"/>
-        <c:axId val="499847552"/>
+        <c:axId val="270250368"/>
+        <c:axId val="270251904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="424336384"/>
+        <c:axId val="270250368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2424,14 +2451,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499847552"/>
+        <c:crossAx val="270251904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="499847552"/>
+        <c:axId val="270251904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2482,12 +2509,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="424336384"/>
+        <c:crossAx val="270250368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="499849472"/>
+        <c:axId val="270266752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,12 +2551,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500312704"/>
+        <c:crossAx val="270268288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="500312704"/>
+        <c:axId val="270268288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2565,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="499849472"/>
+        <c:crossAx val="270266752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2947,7 +2974,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG55"/>
+  <dimension ref="A1:AG56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5315,6 +5342,44 @@
         <v>82694.62326329232</v>
       </c>
     </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>45930</v>
+      </c>
+      <c r="B56" s="15">
+        <v>5.0581000976562498</v>
+      </c>
+      <c r="C56" s="15">
+        <v>32.849998470000003</v>
+      </c>
+      <c r="D56" s="16">
+        <v>25.595553284386586</v>
+      </c>
+      <c r="E56" s="16">
+        <v>-207876.55105672523</v>
+      </c>
+      <c r="F56" s="17">
+        <v>-41097.753512835407</v>
+      </c>
+      <c r="G56" s="17">
+        <v>2753501.8817196875</v>
+      </c>
+      <c r="H56" s="17">
+        <v>13927488.136823019</v>
+      </c>
+      <c r="I56" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J56" s="17">
+        <v>14218059.311143037</v>
+      </c>
+      <c r="K56" s="17">
+        <v>4841667.123422917</v>
+      </c>
+      <c r="L56" s="16">
+        <v>290571.17432001757</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H2">

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>回收资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -615,6 +611,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,7 +623,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -785,6 +784,9 @@
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
                 <c:pt idx="53">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -828,7 +830,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -990,6 +992,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,7 +1004,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1161,6 +1166,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>14218059.311143037</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14039747.208084894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,7 +1211,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1365,6 +1373,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1374,7 +1385,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1536,6 +1547,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>4841667.123422917</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4663355.0203647744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,11 +1571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270234752"/>
-        <c:axId val="270236672"/>
+        <c:axId val="516475520"/>
+        <c:axId val="517663360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="270234752"/>
+        <c:axId val="516475520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,14 +1618,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270236672"/>
+        <c:crossAx val="517663360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="270236672"/>
+        <c:axId val="517663360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1676,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270234752"/>
+        <c:crossAx val="516475520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1853,7 +1867,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2015,6 +2029,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>-207876.55105672523</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-165332.38013883011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2029,8 +2046,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="270268288"/>
-        <c:axId val="270266752"/>
+        <c:axId val="588307072"/>
+        <c:axId val="588305536"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2055,7 +2072,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2217,6 +2234,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>45930</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2226,7 +2246,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2388,6 +2408,9 @@
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>5.0581000976562498</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.9933417968749998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2404,11 +2427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270250368"/>
-        <c:axId val="270251904"/>
+        <c:axId val="536206336"/>
+        <c:axId val="562141056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="270250368"/>
+        <c:axId val="536206336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,14 +2474,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270251904"/>
+        <c:crossAx val="562141056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="270251904"/>
+        <c:axId val="562141056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2509,12 +2532,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270250368"/>
+        <c:crossAx val="536206336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="270266752"/>
+        <c:axId val="588305536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,12 +2574,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270268288"/>
+        <c:crossAx val="588307072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="270268288"/>
+        <c:axId val="588307072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270266752"/>
+        <c:crossAx val="588305536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2974,7 +2997,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG56"/>
+  <dimension ref="A1:AG57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3057,7 +3080,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -3109,13 +3132,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="26" t="s">
+      <c r="R3" s="26" t="s">
         <v>13</v>
-      </c>
-      <c r="R3" s="26" t="s">
-        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -3127,10 +3150,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3" s="26" t="s">
         <v>15</v>
-      </c>
-      <c r="W3" s="26" t="s">
-        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -5378,6 +5401,44 @@
       </c>
       <c r="L56" s="16">
         <v>290571.17432001757</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>45961</v>
+      </c>
+      <c r="B57" s="15">
+        <v>4.9933417968749998</v>
+      </c>
+      <c r="C57" s="15">
+        <v>32.159999849999998</v>
+      </c>
+      <c r="D57" s="16">
+        <v>25.690355441740447</v>
+      </c>
+      <c r="E57" s="16">
+        <v>-165332.38013883011</v>
+      </c>
+      <c r="F57" s="17">
+        <v>-33110.567404438574</v>
+      </c>
+      <c r="G57" s="17">
+        <v>2720391.3143152487</v>
+      </c>
+      <c r="H57" s="17">
+        <v>13583843.653626047</v>
+      </c>
+      <c r="I57" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J57" s="17">
+        <v>14039747.208084894</v>
+      </c>
+      <c r="K57" s="17">
+        <v>4663355.0203647744</v>
+      </c>
+      <c r="L57" s="16">
+        <v>455903.55445884768</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
+++ b/lai/valuationquan/szseinnovation100index/szseinnovation100indexmodel4cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -70,6 +70,10 @@
   </si>
   <si>
     <t>回收资金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,7 +453,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -614,6 +618,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,7 +630,7 @@
               <c:f>'模型四 (1)PE副本'!资金</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -787,6 +794,9 @@
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>9376392.18772012</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>9376392.18772012</c:v>
                 </c:pt>
               </c:numCache>
@@ -830,7 +840,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -995,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,7 +1017,7 @@
               <c:f>'模型四 (1)PE副本'!资产</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1169,6 +1182,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>14039747.208084894</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13579330.276349539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1227,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -1376,6 +1392,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,7 +1404,7 @@
               <c:f>'模型四 (1)PE副本'!金额</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1550,6 +1569,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4663355.0203647744</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4202938.088629419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,11 +1593,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="516475520"/>
-        <c:axId val="517663360"/>
+        <c:axId val="557966080"/>
+        <c:axId val="557967616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="516475520"/>
+        <c:axId val="557966080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,14 +1640,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517663360"/>
+        <c:crossAx val="557967616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="517663360"/>
+        <c:axId val="557967616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,7 +1698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516475520"/>
+        <c:crossAx val="557966080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1867,7 +1889,7 @@
               <c:f>'模型四 (1)PE副本'!买卖</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2032,6 +2054,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>-165332.38013883011</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-63583.378859762786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2046,8 +2071,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="588307072"/>
-        <c:axId val="588305536"/>
+        <c:axId val="566731520"/>
+        <c:axId val="560663552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2072,7 +2097,7 @@
               <c:f>'模型四 (1)PE副本'!时间</c:f>
               <c:numCache>
                 <c:formatCode>yyyy\-mm\-dd</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>44316</c:v>
                 </c:pt>
@@ -2237,6 +2262,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,7 +2274,7 @@
               <c:f>'模型四 (1)PE副本'!指数</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>4.7860299999999993</c:v>
                 </c:pt>
@@ -2411,6 +2439,9 @@
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4.9933417968749998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8240952148437497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2427,11 +2458,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="536206336"/>
-        <c:axId val="562141056"/>
+        <c:axId val="558140800"/>
+        <c:axId val="558163072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="536206336"/>
+        <c:axId val="558140800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,14 +2505,14 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="562141056"/>
+        <c:crossAx val="558163072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="562141056"/>
+        <c:axId val="558163072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,12 +2563,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536206336"/>
+        <c:crossAx val="558140800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="588305536"/>
+        <c:axId val="560663552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2574,12 +2605,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588307072"/>
+        <c:crossAx val="566731520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="588307072"/>
+        <c:axId val="566731520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="588305536"/>
+        <c:crossAx val="560663552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2997,7 +3028,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG57"/>
+  <dimension ref="A1:AG58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3080,7 +3111,7 @@
         <v>3950</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4">
@@ -3132,13 +3163,13 @@
       </c>
       <c r="M3" s="6"/>
       <c r="P3" s="25" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R3" s="26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S3" s="26" t="s">
         <v>9</v>
@@ -3150,10 +3181,10 @@
         <v>11</v>
       </c>
       <c r="V3" s="26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y3" s="19">
         <v>44561</v>
@@ -5439,6 +5470,44 @@
       </c>
       <c r="L57" s="16">
         <v>455903.55445884768</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>45989</v>
+      </c>
+      <c r="B58" s="15">
+        <v>4.8240952148437497</v>
+      </c>
+      <c r="C58" s="15">
+        <v>29.780000690000001</v>
+      </c>
+      <c r="D58" s="16">
+        <v>25.767886790921306</v>
+      </c>
+      <c r="E58" s="16">
+        <v>-63583.378859762786</v>
+      </c>
+      <c r="F58" s="17">
+        <v>-13180.373941234951</v>
+      </c>
+      <c r="G58" s="17">
+        <v>2707210.940374014</v>
+      </c>
+      <c r="H58" s="17">
+        <v>13059843.343030928</v>
+      </c>
+      <c r="I58" s="17">
+        <v>9376392.18772012</v>
+      </c>
+      <c r="J58" s="17">
+        <v>13579330.276349539</v>
+      </c>
+      <c r="K58" s="17">
+        <v>4202938.088629419</v>
+      </c>
+      <c r="L58" s="16">
+        <v>519486.93331861048</v>
       </c>
     </row>
   </sheetData>
